--- a/GeoRef/Data_GeoRef/DWA_GeoRef_AL.xlsx
+++ b/GeoRef/Data_GeoRef/DWA_GeoRef_AL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\GeoRef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiWi\DWA\GeoRef\Data_GeoRef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490E98A6-0645-440D-998C-6EA607105CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81994274-A2F5-40EB-BAA4-61340D9A59FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="0" windowWidth="8112" windowHeight="11700" tabRatio="599" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
+    <workbookView xWindow="7716" yWindow="-504" windowWidth="12804" windowHeight="11700" tabRatio="599" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11360" uniqueCount="4063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11578" uniqueCount="4246">
   <si>
     <t>ID</t>
   </si>
@@ -12247,12 +12247,584 @@
   <si>
     <t>Tunsel</t>
   </si>
+  <si>
+    <t>Tunsel sollte bei w'12 sein, ist aber bei w'13</t>
+  </si>
+  <si>
+    <t>Ballrechten</t>
+  </si>
+  <si>
+    <t>Obermünstertal-Krummlinden</t>
+  </si>
+  <si>
+    <t>Wettelbrunn</t>
+  </si>
+  <si>
+    <t>Grunern</t>
+  </si>
+  <si>
+    <t>Laufen</t>
+  </si>
+  <si>
+    <t>Staufen</t>
+  </si>
+  <si>
+    <t>Sulzburg</t>
+  </si>
+  <si>
+    <t>Untermünstertal</t>
+  </si>
+  <si>
+    <t>Gibt 2x untermünstertal, gid ist von Untermünstertal-Ziegelplatz</t>
+  </si>
+  <si>
+    <t>Obermünstertal-Spielweg</t>
+  </si>
+  <si>
+    <t>Sollte bei w'13 sein, ist in w'14</t>
+  </si>
+  <si>
+    <t>Obermünstertal-Stohren</t>
+  </si>
+  <si>
+    <t>Hofsgrund</t>
+  </si>
+  <si>
+    <t>St. Wilhelm</t>
+  </si>
+  <si>
+    <t>Wieden</t>
+  </si>
+  <si>
+    <t>Todtnauberg</t>
+  </si>
+  <si>
+    <t>Bärental</t>
+  </si>
+  <si>
+    <t>Raitenbuch</t>
+  </si>
+  <si>
+    <t>Altglashütten</t>
+  </si>
+  <si>
+    <t>Friedenweiler</t>
+  </si>
+  <si>
+    <t>Holzschlag</t>
+  </si>
+  <si>
+    <t>Göschweiler</t>
+  </si>
+  <si>
+    <t>Gündelwangen</t>
+  </si>
+  <si>
+    <t>Lenzkirch</t>
+  </si>
+  <si>
+    <t>Sewen</t>
+  </si>
+  <si>
+    <t>Dollern</t>
+  </si>
+  <si>
+    <t>Oberbruck</t>
+  </si>
+  <si>
+    <t>Kirchberg</t>
+  </si>
+  <si>
+    <t>Niederbruck</t>
+  </si>
+  <si>
+    <t>Maasmünster</t>
+  </si>
+  <si>
+    <t>Aue</t>
+  </si>
+  <si>
+    <t>Oberburbach</t>
+  </si>
+  <si>
+    <t>Bitschweiler</t>
+  </si>
+  <si>
+    <t>Sentheim</t>
+  </si>
+  <si>
+    <t>Niederburbach</t>
+  </si>
+  <si>
+    <t>Rammersmatt</t>
+  </si>
+  <si>
+    <t>Leimbach</t>
+  </si>
+  <si>
+    <t>Thann</t>
+  </si>
+  <si>
+    <t>Alttann</t>
+  </si>
+  <si>
+    <t>Steinbach</t>
+  </si>
+  <si>
+    <t>Sennheim</t>
+  </si>
+  <si>
+    <t>Sollte in x'10 sein, ist in x'9</t>
+  </si>
+  <si>
+    <t>Oberaspach</t>
+  </si>
+  <si>
+    <t>Niederaspach</t>
+  </si>
+  <si>
+    <t>Schweighausen</t>
+  </si>
+  <si>
+    <t>In Maurer steht Tann-Bitschweiler</t>
+  </si>
+  <si>
+    <t>Uffholz</t>
+  </si>
+  <si>
+    <t>Wittelsheim</t>
+  </si>
+  <si>
+    <t>23409, 23409</t>
+  </si>
+  <si>
+    <t>Staffelfelden</t>
+  </si>
+  <si>
+    <t>Lutterbach</t>
+  </si>
+  <si>
+    <t>Mülhausen</t>
+  </si>
+  <si>
+    <t>522561, 522561</t>
+  </si>
+  <si>
+    <t>Sollte in x'11 sein, ist in x'10</t>
+  </si>
+  <si>
+    <t>522561, 522562</t>
+  </si>
+  <si>
+    <t>522561, 522563</t>
+  </si>
+  <si>
+    <t>522561, 522564</t>
+  </si>
+  <si>
+    <t>522561, 522565</t>
+  </si>
+  <si>
+    <t>522561, 522566</t>
+  </si>
+  <si>
+    <t>522561, 522567</t>
+  </si>
+  <si>
+    <t>522561, 522568</t>
+  </si>
+  <si>
+    <t>522561, 522569</t>
+  </si>
+  <si>
+    <t>522561, 522570</t>
+  </si>
+  <si>
+    <t>522561, 522571</t>
+  </si>
+  <si>
+    <t>522561, 522572</t>
+  </si>
+  <si>
+    <t>522561, 522573</t>
+  </si>
+  <si>
+    <t>522561, 522574</t>
+  </si>
+  <si>
+    <t>522561, 522575</t>
+  </si>
+  <si>
+    <t>Illzach</t>
+  </si>
+  <si>
+    <t>35493, 35493</t>
+  </si>
+  <si>
+    <t>Kingersheim</t>
+  </si>
+  <si>
+    <t>Sollte in x'10 sein, ist in x'11</t>
+  </si>
+  <si>
+    <t>Wittenheim</t>
+  </si>
+  <si>
+    <t>Rülisheim</t>
+  </si>
+  <si>
+    <t>Sausheim</t>
+  </si>
+  <si>
+    <t>Baldersheim</t>
+  </si>
+  <si>
+    <t>Battenheim</t>
+  </si>
+  <si>
+    <t>Modenheim</t>
+  </si>
+  <si>
+    <t>35788, 35788</t>
+  </si>
+  <si>
+    <t>Homburg</t>
+  </si>
+  <si>
+    <t>Ottmarsheim</t>
+  </si>
+  <si>
+    <t>Eichwald</t>
+  </si>
+  <si>
+    <t>Banzenheim</t>
+  </si>
+  <si>
+    <t>Neuenburg</t>
+  </si>
+  <si>
+    <t>Schliengen</t>
+  </si>
+  <si>
+    <t>Auggen</t>
+  </si>
+  <si>
+    <t>Hügelheim</t>
+  </si>
+  <si>
+    <t>Feldberg</t>
+  </si>
+  <si>
+    <t>Lipburg</t>
+  </si>
+  <si>
+    <t>Obereggenen, Niedereggenen</t>
+  </si>
+  <si>
+    <t>Zunzingen</t>
+  </si>
+  <si>
+    <t>Britzingen</t>
+  </si>
+  <si>
+    <t>Sollte in x'12 sein, ist in x'13</t>
+  </si>
+  <si>
+    <t>Badenweiler</t>
+  </si>
+  <si>
+    <t>Marzell über Kandern</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bei Maurer steht Marzell </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kandern</t>
+    </r>
+  </si>
+  <si>
+    <t>Bürchau</t>
+  </si>
+  <si>
+    <t>Neuenweg</t>
+  </si>
+  <si>
+    <t>Untermünstertal-Rotenbuck</t>
+  </si>
+  <si>
+    <t>Sollte bei w'13 sein, ist bei x'13</t>
+  </si>
+  <si>
+    <t>Raich</t>
+  </si>
+  <si>
+    <t>Schweighof</t>
+  </si>
+  <si>
+    <t>Präg</t>
+  </si>
+  <si>
+    <t>Schönenberg</t>
+  </si>
+  <si>
+    <t>Schönau</t>
+  </si>
+  <si>
+    <t>Aitern</t>
+  </si>
+  <si>
+    <t>Utzenfeld</t>
+  </si>
+  <si>
+    <t>Tunau</t>
+  </si>
+  <si>
+    <t>Fröhnd-Stutz</t>
+  </si>
+  <si>
+    <t>Bei Maurer steht nur Fröhnd, im Bogen dagegen Fröhnd-Stutz</t>
+  </si>
+  <si>
+    <t>Fröhnd-Ittenschwand</t>
+  </si>
+  <si>
+    <t>Bei Maurer steht nur Fröhnd, im Bogen dagegen Fröhnd-Ittenschwand</t>
+  </si>
+  <si>
+    <t>Geschwend</t>
+  </si>
+  <si>
+    <t>Schlechtnau</t>
+  </si>
+  <si>
+    <t>Todtnau</t>
+  </si>
+  <si>
+    <t>Böllen</t>
+  </si>
+  <si>
+    <t>Sollte in x'13 sein, ist in x'14</t>
+  </si>
+  <si>
+    <t>Präg-Herrenschwand</t>
+  </si>
+  <si>
+    <t>Merzenschwand</t>
+  </si>
+  <si>
+    <t>St. Blasien</t>
+  </si>
+  <si>
+    <t>Blasiwald</t>
+  </si>
+  <si>
+    <t>Sollte in x'16 sein, ist in x'15</t>
+  </si>
+  <si>
+    <t>Schluchsee</t>
+  </si>
+  <si>
+    <t>Mettenberg</t>
+  </si>
+  <si>
+    <t>Hohrodberg</t>
+  </si>
+  <si>
+    <t>Hohrod</t>
+  </si>
+  <si>
+    <t>Stossweier</t>
+  </si>
+  <si>
+    <t>Luttenbach</t>
+  </si>
+  <si>
+    <t>Breitenbach</t>
+  </si>
+  <si>
+    <t>Mühlbach</t>
+  </si>
+  <si>
+    <t>Metzeral</t>
+  </si>
+  <si>
+    <t>Sulzern</t>
+  </si>
+  <si>
+    <t>Wasserburg</t>
+  </si>
+  <si>
+    <t>Zimmerbach</t>
+  </si>
+  <si>
+    <t>Walbach</t>
+  </si>
+  <si>
+    <t>Weier im Tal</t>
+  </si>
+  <si>
+    <t>In Maurer steht Weier, im Bogen steht Weier im Tal</t>
+  </si>
+  <si>
+    <t>Günsbach</t>
+  </si>
+  <si>
+    <t>Sollte in u'9 sein, ist in u'10</t>
+  </si>
+  <si>
+    <t>Griesbach</t>
+  </si>
+  <si>
+    <t>Sollte in u'9 sein, ist in u'11</t>
+  </si>
+  <si>
+    <t>Vöklinshofen</t>
+  </si>
+  <si>
+    <t>Wettolsheim</t>
+  </si>
+  <si>
+    <t>Egisheim</t>
+  </si>
+  <si>
+    <t>Häusern</t>
+  </si>
+  <si>
+    <t>Obermorschweier</t>
+  </si>
+  <si>
+    <t>Hattstatt</t>
+  </si>
+  <si>
+    <t>Geberschweier</t>
+  </si>
+  <si>
+    <t>Herlisheim</t>
+  </si>
+  <si>
+    <t>Sulzbach</t>
+  </si>
+  <si>
+    <t>Widensolen</t>
+  </si>
+  <si>
+    <t>Andolsheim</t>
+  </si>
+  <si>
+    <t>Kolmar</t>
+  </si>
+  <si>
+    <t>31694, 31694, 31694, 31694, 31694, 31694</t>
+  </si>
+  <si>
+    <t>Sundhofen</t>
+  </si>
+  <si>
+    <t>Appenweier</t>
+  </si>
+  <si>
+    <t>Hettenschlag</t>
+  </si>
+  <si>
+    <t>Logelnheim</t>
+  </si>
+  <si>
+    <t>Heiligkreuz</t>
+  </si>
+  <si>
+    <t>Künheim</t>
+  </si>
+  <si>
+    <t>Achkarren</t>
+  </si>
+  <si>
+    <t>Ihringen</t>
+  </si>
+  <si>
+    <t>Gündlingen</t>
+  </si>
+  <si>
+    <t>Breisach</t>
+  </si>
+  <si>
+    <t>Vogelgrün</t>
+  </si>
+  <si>
+    <t>Algolsheim</t>
+  </si>
+  <si>
+    <t>Vogelsheim</t>
+  </si>
+  <si>
+    <t>Biesheim</t>
+  </si>
+  <si>
+    <t>Neubreisach</t>
+  </si>
+  <si>
+    <t>Weckolsheim</t>
+  </si>
+  <si>
+    <t>In Maurer wird Umgebung von Neubreisach (Weckolsheim) abgefragt, im Bogen steht Weckolsheim</t>
+  </si>
+  <si>
+    <t>Wolfganzen</t>
+  </si>
+  <si>
+    <t>Sollte in u'11 sein, ist in u'12</t>
+  </si>
+  <si>
+    <t>Bötzingen</t>
+  </si>
+  <si>
+    <t>Buchheim</t>
+  </si>
+  <si>
+    <t>Hochdorf</t>
+  </si>
+  <si>
+    <t>Hugstetten</t>
+  </si>
+  <si>
+    <t>Umkirch</t>
+  </si>
+  <si>
+    <t>Waltershofen</t>
+  </si>
+  <si>
+    <t>Opfingen</t>
+  </si>
+  <si>
+    <t>Merdingen</t>
+  </si>
+  <si>
+    <t>Reute</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12313,8 +12885,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12341,6 +12921,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12404,7 +12990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -12428,9 +13014,13 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -12753,8 +13343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5F02-D8D5-48E9-B70F-7F4CD3C854AC}">
   <dimension ref="A1:Q3564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1428" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H1443" sqref="H1443:K1444"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q2091" sqref="Q2091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41135,7 +41725,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1233">
         <v>2756</v>
       </c>
@@ -41157,8 +41747,20 @@
       <c r="G1233" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1233" t="s">
+        <v>4188</v>
+      </c>
+      <c r="I1233" s="25">
+        <v>31690</v>
+      </c>
+      <c r="J1233" s="25">
+        <v>7.1352799999999998</v>
+      </c>
+      <c r="K1233" s="25">
+        <v>48.060369999999999</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1234">
         <v>2757</v>
       </c>
@@ -41180,8 +41782,20 @@
       <c r="G1234" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1234" t="s">
+        <v>4189</v>
+      </c>
+      <c r="I1234" s="25">
+        <v>23841</v>
+      </c>
+      <c r="J1234" s="25">
+        <v>7.1260700000000003</v>
+      </c>
+      <c r="K1234" s="25">
+        <v>48.05444</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1235">
         <v>2758</v>
       </c>
@@ -41203,8 +41817,20 @@
       <c r="G1235" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1235" t="s">
+        <v>4190</v>
+      </c>
+      <c r="I1235" s="25">
+        <v>26289</v>
+      </c>
+      <c r="J1235" s="25">
+        <v>7.1016300000000001</v>
+      </c>
+      <c r="K1235" s="25">
+        <v>48.054319999999997</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1236">
         <v>2759</v>
       </c>
@@ -41226,8 +41852,20 @@
       <c r="G1236" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1236" t="s">
+        <v>4190</v>
+      </c>
+      <c r="I1236" s="25">
+        <v>26289</v>
+      </c>
+      <c r="J1236" s="25">
+        <v>7.1016300000000001</v>
+      </c>
+      <c r="K1236" s="25">
+        <v>48.054319999999997</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1237">
         <v>2760</v>
       </c>
@@ -41249,8 +41887,20 @@
       <c r="G1237" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1237" t="s">
+        <v>4191</v>
+      </c>
+      <c r="I1237" s="25">
+        <v>32991</v>
+      </c>
+      <c r="J1237" s="25">
+        <v>7.1174499999999998</v>
+      </c>
+      <c r="K1237" s="25">
+        <v>48.03105</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1238">
         <v>2761</v>
       </c>
@@ -41272,8 +41922,20 @@
       <c r="G1238" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1238" t="s">
+        <v>4192</v>
+      </c>
+      <c r="I1238" s="25">
+        <v>31930</v>
+      </c>
+      <c r="J1238" s="25">
+        <v>7.1008699999999996</v>
+      </c>
+      <c r="K1238" s="25">
+        <v>48.023820000000001</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1239">
         <v>2762</v>
       </c>
@@ -41295,8 +41957,20 @@
       <c r="G1239" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="1240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1239" t="s">
+        <v>4193</v>
+      </c>
+      <c r="I1239" s="25">
+        <v>35983</v>
+      </c>
+      <c r="J1239" s="25">
+        <v>7.0873100000000004</v>
+      </c>
+      <c r="K1239" s="25">
+        <v>48.025820000000003</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1240">
         <v>2763</v>
       </c>
@@ -41318,8 +41992,20 @@
       <c r="G1240" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="1241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1240" t="s">
+        <v>4194</v>
+      </c>
+      <c r="I1240" s="25">
+        <v>31509</v>
+      </c>
+      <c r="J1240" s="25">
+        <v>7.0714600000000001</v>
+      </c>
+      <c r="K1240" s="25">
+        <v>48.013249999999999</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1241">
         <v>2764</v>
       </c>
@@ -41341,8 +42027,20 @@
       <c r="G1241" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1241" t="s">
+        <v>4195</v>
+      </c>
+      <c r="I1241" s="25">
+        <v>31597</v>
+      </c>
+      <c r="J1241" s="25">
+        <v>7.1025400000000003</v>
+      </c>
+      <c r="K1241" s="25">
+        <v>48.06373</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1242">
         <v>2765</v>
       </c>
@@ -41364,8 +42062,20 @@
       <c r="G1242" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1242" t="s">
+        <v>3884</v>
+      </c>
+      <c r="I1242" s="25">
+        <v>27529</v>
+      </c>
+      <c r="J1242" s="25">
+        <v>7.1459400000000004</v>
+      </c>
+      <c r="K1242" s="25">
+        <v>48.028959999999998</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1243">
         <v>2766</v>
       </c>
@@ -41387,8 +42097,20 @@
       <c r="G1243" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1243" t="s">
+        <v>4196</v>
+      </c>
+      <c r="I1243" s="25">
+        <v>35637</v>
+      </c>
+      <c r="J1243" s="25">
+        <v>7.1594800000000003</v>
+      </c>
+      <c r="K1243" s="25">
+        <v>48.002830000000003</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1244">
         <v>2767</v>
       </c>
@@ -41410,8 +42132,20 @@
       <c r="G1244" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="1245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1244" t="s">
+        <v>4197</v>
+      </c>
+      <c r="I1244" s="25">
+        <v>28126</v>
+      </c>
+      <c r="J1244" s="25">
+        <v>7.2375499999999997</v>
+      </c>
+      <c r="K1244" s="25">
+        <v>48.072609999999997</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1245">
         <v>2768</v>
       </c>
@@ -41433,77 +42167,134 @@
       <c r="G1245" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="1246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1246">
+      <c r="H1245" t="s">
+        <v>4198</v>
+      </c>
+      <c r="I1245" s="25">
+        <v>31519</v>
+      </c>
+      <c r="J1245" s="25">
+        <v>7.2241600000000004</v>
+      </c>
+      <c r="K1245" s="25">
+        <v>48.062570000000001</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1246" s="12">
         <v>2769</v>
       </c>
-      <c r="B1246" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1246" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1246" t="s">
+      <c r="B1246" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1246" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1246" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="E1246">
+      <c r="E1246" s="12">
         <v>10</v>
       </c>
-      <c r="F1246">
+      <c r="F1246" s="12">
         <v>3</v>
       </c>
-      <c r="G1246" t="s">
+      <c r="G1246" s="12" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="1247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1247">
+      <c r="H1246" s="12" t="s">
+        <v>4199</v>
+      </c>
+      <c r="I1246" s="28">
+        <v>29194</v>
+      </c>
+      <c r="J1246" s="28">
+        <v>7.2055800000000003</v>
+      </c>
+      <c r="K1246" s="28">
+        <v>48.052169999999997</v>
+      </c>
+      <c r="P1246" s="12" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1247" s="28">
         <v>2770</v>
       </c>
-      <c r="B1247" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1247" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1247" t="s">
+      <c r="B1247" s="29">
+        <v>44826</v>
+      </c>
+      <c r="C1247" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1247" s="28" t="s">
         <v>869</v>
       </c>
-      <c r="E1247">
+      <c r="E1247" s="28">
         <v>10</v>
       </c>
-      <c r="F1247">
+      <c r="F1247" s="28">
         <v>4</v>
       </c>
-      <c r="G1247" t="s">
+      <c r="G1247" s="28" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1248">
+      <c r="H1247" s="28" t="s">
+        <v>4201</v>
+      </c>
+      <c r="I1247" s="28">
+        <v>26334</v>
+      </c>
+      <c r="J1247" s="28">
+        <v>7.1732300000000002</v>
+      </c>
+      <c r="K1247" s="28">
+        <v>48.046399999999998</v>
+      </c>
+      <c r="P1247" s="28" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1248" s="12">
         <v>2771</v>
       </c>
-      <c r="B1248" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1248" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1248" t="s">
+      <c r="B1248" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1248" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1248" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="E1248">
+      <c r="E1248" s="12">
         <v>10</v>
       </c>
-      <c r="F1248">
+      <c r="F1248" s="12">
         <v>5</v>
       </c>
-      <c r="G1248" t="s">
+      <c r="G1248" s="12" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1248" s="12" t="s">
+        <v>4203</v>
+      </c>
+      <c r="I1248" s="28">
+        <v>36133</v>
+      </c>
+      <c r="J1248" s="28">
+        <v>7.1707099999999997</v>
+      </c>
+      <c r="K1248" s="28">
+        <v>48.03351</v>
+      </c>
+      <c r="P1248" s="28" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1249">
         <v>2772</v>
       </c>
@@ -41525,8 +42316,20 @@
       <c r="G1249" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1249" s="10" t="s">
+        <v>4205</v>
+      </c>
+      <c r="I1249" s="10">
+        <v>32350</v>
+      </c>
+      <c r="J1249" s="10">
+        <v>7.2822399999999998</v>
+      </c>
+      <c r="K1249" s="10">
+        <v>48.019539999999999</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1250">
         <v>2773</v>
       </c>
@@ -41549,7 +42352,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1251">
         <v>2774</v>
       </c>
@@ -41571,8 +42374,20 @@
       <c r="G1251" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1251" s="10" t="s">
+        <v>4206</v>
+      </c>
+      <c r="I1251" s="10">
+        <v>33220</v>
+      </c>
+      <c r="J1251" s="10">
+        <v>7.3062899999999997</v>
+      </c>
+      <c r="K1251" s="10">
+        <v>48.061329999999998</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1252">
         <v>2775</v>
       </c>
@@ -41594,8 +42409,20 @@
       <c r="G1252" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1252" t="s">
+        <v>4207</v>
+      </c>
+      <c r="I1252" s="10">
+        <v>30737</v>
+      </c>
+      <c r="J1252" s="10">
+        <v>7.3045499999999999</v>
+      </c>
+      <c r="K1252" s="10">
+        <v>48.041679999999999</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1253">
         <v>2776</v>
       </c>
@@ -41617,8 +42444,20 @@
       <c r="G1253" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1253" t="s">
+        <v>4208</v>
+      </c>
+      <c r="I1253" s="10">
+        <v>28014</v>
+      </c>
+      <c r="J1253" s="10">
+        <v>7.2806699999999998</v>
+      </c>
+      <c r="K1253" s="10">
+        <v>48.032260000000001</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1254">
         <v>2777</v>
       </c>
@@ -41640,8 +42479,20 @@
       <c r="G1254" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1254" t="s">
+        <v>4209</v>
+      </c>
+      <c r="I1254" s="10">
+        <v>23414</v>
+      </c>
+      <c r="J1254" s="10">
+        <v>7.30037</v>
+      </c>
+      <c r="K1254" s="10">
+        <v>48.01773</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1255">
         <v>2778</v>
       </c>
@@ -41663,8 +42514,20 @@
       <c r="G1255" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1255" t="s">
+        <v>4210</v>
+      </c>
+      <c r="I1255" s="10">
+        <v>25389</v>
+      </c>
+      <c r="J1255" s="10">
+        <v>7.30016</v>
+      </c>
+      <c r="K1255" s="10">
+        <v>48.010800000000003</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1256">
         <v>2779</v>
       </c>
@@ -41686,8 +42549,20 @@
       <c r="G1256" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1256" t="s">
+        <v>4211</v>
+      </c>
+      <c r="I1256" s="10">
+        <v>27391</v>
+      </c>
+      <c r="J1256" s="10">
+        <v>7.2766099999999998</v>
+      </c>
+      <c r="K1256" s="10">
+        <v>48.004440000000002</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1257">
         <v>2780</v>
       </c>
@@ -41709,8 +42584,20 @@
       <c r="G1257" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1257" t="s">
+        <v>4211</v>
+      </c>
+      <c r="I1257" s="10">
+        <v>27391</v>
+      </c>
+      <c r="J1257" s="10">
+        <v>7.2766099999999998</v>
+      </c>
+      <c r="K1257" s="10">
+        <v>48.004440000000002</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1258">
         <v>2781</v>
       </c>
@@ -41732,8 +42619,20 @@
       <c r="G1258" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1258" t="s">
+        <v>4212</v>
+      </c>
+      <c r="I1258" s="10">
+        <v>24658</v>
+      </c>
+      <c r="J1258" s="10">
+        <v>7.3293200000000001</v>
+      </c>
+      <c r="K1258" s="10">
+        <v>48.016770000000001</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1259">
         <v>2782</v>
       </c>
@@ -41755,8 +42654,20 @@
       <c r="G1259" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1259" t="s">
+        <v>4213</v>
+      </c>
+      <c r="I1259" s="10">
+        <v>29940</v>
+      </c>
+      <c r="J1259" s="10">
+        <v>7.2032400000000001</v>
+      </c>
+      <c r="K1259" s="10">
+        <v>48.037970000000001</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1260">
         <v>2783</v>
       </c>
@@ -41778,8 +42689,20 @@
       <c r="G1260" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1260" t="s">
+        <v>4214</v>
+      </c>
+      <c r="I1260" s="10">
+        <v>30556</v>
+      </c>
+      <c r="J1260" s="10">
+        <v>7.4799600000000002</v>
+      </c>
+      <c r="K1260" s="10">
+        <v>48.062779999999997</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1261">
         <v>2784</v>
       </c>
@@ -41801,8 +42724,20 @@
       <c r="G1261" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1261" t="s">
+        <v>4215</v>
+      </c>
+      <c r="I1261" s="10">
+        <v>36199</v>
+      </c>
+      <c r="J1261" s="10">
+        <v>7.4151199999999999</v>
+      </c>
+      <c r="K1261" s="10">
+        <v>48.067630000000001</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1262">
         <v>2785</v>
       </c>
@@ -41824,8 +42759,20 @@
       <c r="G1262" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="1263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1262" t="s">
+        <v>4216</v>
+      </c>
+      <c r="I1262" s="10" t="s">
+        <v>4217</v>
+      </c>
+      <c r="J1262" s="10">
+        <v>7.3635900000000003</v>
+      </c>
+      <c r="K1262" s="10">
+        <v>48.081980000000001</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1263">
         <v>2786</v>
       </c>
@@ -41847,8 +42794,20 @@
       <c r="G1263" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1263" t="s">
+        <v>4218</v>
+      </c>
+      <c r="I1263" s="10">
+        <v>31926</v>
+      </c>
+      <c r="J1263" s="10">
+        <v>7.4149900000000004</v>
+      </c>
+      <c r="K1263" s="10">
+        <v>48.042479999999998</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1264">
         <v>2787</v>
       </c>
@@ -41870,8 +42829,20 @@
       <c r="G1264" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1264" t="s">
+        <v>4219</v>
+      </c>
+      <c r="I1264" s="10">
+        <v>24716</v>
+      </c>
+      <c r="J1264" s="10">
+        <v>7.4396199999999997</v>
+      </c>
+      <c r="K1264" s="10">
+        <v>48.025939999999999</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1265">
         <v>2788</v>
       </c>
@@ -41893,8 +42864,20 @@
       <c r="G1265" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1265" t="s">
+        <v>4220</v>
+      </c>
+      <c r="I1265" s="10">
+        <v>28727</v>
+      </c>
+      <c r="J1265" s="10">
+        <v>7.4578199999999999</v>
+      </c>
+      <c r="K1265" s="10">
+        <v>48.00441</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1266">
         <v>2789</v>
       </c>
@@ -41916,8 +42899,20 @@
       <c r="G1266" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1266" t="s">
+        <v>4221</v>
+      </c>
+      <c r="I1266" s="10">
+        <v>25545</v>
+      </c>
+      <c r="J1266" s="10">
+        <v>7.4091800000000001</v>
+      </c>
+      <c r="K1266" s="10">
+        <v>48.021099999999997</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1267">
         <v>2790</v>
       </c>
@@ -41939,8 +42934,20 @@
       <c r="G1267" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1267" t="s">
+        <v>4222</v>
+      </c>
+      <c r="I1267" s="10">
+        <v>29079</v>
+      </c>
+      <c r="J1267" s="10">
+        <v>7.3830999999999998</v>
+      </c>
+      <c r="K1267" s="10">
+        <v>48.006659999999997</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1268">
         <v>2791</v>
       </c>
@@ -41962,8 +42969,20 @@
       <c r="G1268" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1268" t="s">
+        <v>4223</v>
+      </c>
+      <c r="I1268" s="10">
+        <v>33495</v>
+      </c>
+      <c r="J1268" s="10">
+        <v>7.5342200000000004</v>
+      </c>
+      <c r="K1268" s="10">
+        <v>48.07788</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1269">
         <v>2792</v>
       </c>
@@ -41985,8 +43004,20 @@
       <c r="G1269" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1269" t="s">
+        <v>4224</v>
+      </c>
+      <c r="I1269" s="10">
+        <v>131231</v>
+      </c>
+      <c r="J1269" s="10">
+        <v>7.6244800000000001</v>
+      </c>
+      <c r="K1269" s="10">
+        <v>48.067689999999999</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1270">
         <v>2793</v>
       </c>
@@ -42008,8 +43039,20 @@
       <c r="G1270" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1270" t="s">
+        <v>4225</v>
+      </c>
+      <c r="I1270" s="10">
+        <v>127937</v>
+      </c>
+      <c r="J1270" s="10">
+        <v>7.6455399999999996</v>
+      </c>
+      <c r="K1270" s="10">
+        <v>48.045720000000003</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1271">
         <v>2794</v>
       </c>
@@ -42031,8 +43074,20 @@
       <c r="G1271" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1271" t="s">
+        <v>4226</v>
+      </c>
+      <c r="I1271" s="10">
+        <v>133572</v>
+      </c>
+      <c r="J1271" s="10">
+        <v>7.6422699999999999</v>
+      </c>
+      <c r="K1271" s="10">
+        <v>48.015560000000001</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1272">
         <v>2795</v>
       </c>
@@ -42054,8 +43109,20 @@
       <c r="G1272" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1272" t="s">
+        <v>4227</v>
+      </c>
+      <c r="I1272" s="10">
+        <v>132807</v>
+      </c>
+      <c r="J1272" s="10">
+        <v>7.5933200000000003</v>
+      </c>
+      <c r="K1272" s="10">
+        <v>48.045349999999999</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1273">
         <v>2796</v>
       </c>
@@ -42077,8 +43144,20 @@
       <c r="G1273" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1273" t="s">
+        <v>4228</v>
+      </c>
+      <c r="I1273" s="10">
+        <v>23207</v>
+      </c>
+      <c r="J1273" s="10">
+        <v>7.5724299999999998</v>
+      </c>
+      <c r="K1273" s="10">
+        <v>48.011099999999999</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1274">
         <v>2797</v>
       </c>
@@ -42100,8 +43179,20 @@
       <c r="G1274" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1274" t="s">
+        <v>4229</v>
+      </c>
+      <c r="I1274" s="10">
+        <v>30240</v>
+      </c>
+      <c r="J1274" s="10">
+        <v>7.55708</v>
+      </c>
+      <c r="K1274" s="10">
+        <v>48.005629999999996</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1275">
         <v>2798</v>
       </c>
@@ -42123,8 +43214,20 @@
       <c r="G1275" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1275" t="s">
+        <v>4230</v>
+      </c>
+      <c r="I1275" s="10">
+        <v>29300</v>
+      </c>
+      <c r="J1275" s="10">
+        <v>7.5529200000000003</v>
+      </c>
+      <c r="K1275" s="10">
+        <v>48.016930000000002</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1276">
         <v>2799</v>
       </c>
@@ -42146,8 +43249,20 @@
       <c r="G1276" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1276" t="s">
+        <v>4231</v>
+      </c>
+      <c r="I1276" s="10">
+        <v>31807</v>
+      </c>
+      <c r="J1276" s="10">
+        <v>7.54467</v>
+      </c>
+      <c r="K1276" s="10">
+        <v>48.040480000000002</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1277">
         <v>2800</v>
       </c>
@@ -42169,54 +43284,96 @@
       <c r="G1277" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1278">
+      <c r="H1277" t="s">
+        <v>4232</v>
+      </c>
+      <c r="I1277" s="10">
+        <v>35499</v>
+      </c>
+      <c r="J1277" s="10">
+        <v>7.5290900000000001</v>
+      </c>
+      <c r="K1277" s="10">
+        <v>48.018430000000002</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1278" s="12">
         <v>2801</v>
       </c>
-      <c r="B1278" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1278" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1278" t="s">
+      <c r="B1278" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1278" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1278" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="E1278">
+      <c r="E1278" s="12">
         <v>12</v>
       </c>
-      <c r="F1278">
+      <c r="F1278" s="12">
         <v>11</v>
       </c>
-      <c r="G1278" t="s">
+      <c r="G1278" s="12" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1279">
+      <c r="H1278" s="12" t="s">
+        <v>4233</v>
+      </c>
+      <c r="I1278" s="12">
+        <v>30355</v>
+      </c>
+      <c r="J1278" s="12">
+        <v>7.5134699999999999</v>
+      </c>
+      <c r="K1278" s="12">
+        <v>48.00264</v>
+      </c>
+      <c r="P1278" s="12" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1279" s="12">
         <v>2802</v>
       </c>
-      <c r="B1279" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1279" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1279" t="s">
+      <c r="B1279" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1279" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1279" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="E1279">
+      <c r="E1279" s="12">
         <v>12</v>
       </c>
-      <c r="F1279">
+      <c r="F1279" s="12">
         <v>12</v>
       </c>
-      <c r="G1279" t="s">
+      <c r="G1279" s="12" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1279" s="12" t="s">
+        <v>4235</v>
+      </c>
+      <c r="I1279" s="28">
+        <v>36055</v>
+      </c>
+      <c r="J1279" s="28">
+        <v>7.5015999999999998</v>
+      </c>
+      <c r="K1279" s="28">
+        <v>48.027470000000001</v>
+      </c>
+      <c r="P1279" s="12" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1280">
         <v>2803</v>
       </c>
@@ -42238,8 +43395,20 @@
       <c r="G1280" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1280" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I1280" s="10">
+        <v>130411</v>
+      </c>
+      <c r="J1280" s="10">
+        <v>7.72593</v>
+      </c>
+      <c r="K1280" s="10">
+        <v>48.07743</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1281">
         <v>2804</v>
       </c>
@@ -42261,8 +43430,20 @@
       <c r="G1281" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1281" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I1281" s="10">
+        <v>130411</v>
+      </c>
+      <c r="J1281" s="10">
+        <v>7.72593</v>
+      </c>
+      <c r="K1281" s="10">
+        <v>48.07743</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1282">
         <v>2805</v>
       </c>
@@ -42284,8 +43465,20 @@
       <c r="G1282" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1282" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I1282" s="10">
+        <v>130411</v>
+      </c>
+      <c r="J1282" s="10">
+        <v>7.72593</v>
+      </c>
+      <c r="K1282" s="10">
+        <v>48.07743</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1283">
         <v>2806</v>
       </c>
@@ -42307,8 +43500,20 @@
       <c r="G1283" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1283" t="s">
+        <v>4237</v>
+      </c>
+      <c r="I1283" s="10">
+        <v>130411</v>
+      </c>
+      <c r="J1283" s="10">
+        <v>7.72593</v>
+      </c>
+      <c r="K1283" s="10">
+        <v>48.07743</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1284">
         <v>2807</v>
       </c>
@@ -42330,8 +43535,20 @@
       <c r="G1284" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1284" t="s">
+        <v>4238</v>
+      </c>
+      <c r="I1284" s="10">
+        <v>132232</v>
+      </c>
+      <c r="J1284" s="10">
+        <v>7.7791199999999998</v>
+      </c>
+      <c r="K1284" s="10">
+        <v>48.060920000000003</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1285">
         <v>2808</v>
       </c>
@@ -42353,8 +43570,20 @@
       <c r="G1285" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1285" t="s">
+        <v>4239</v>
+      </c>
+      <c r="I1285" s="10">
+        <v>130678</v>
+      </c>
+      <c r="J1285" s="10">
+        <v>7.8021200000000004</v>
+      </c>
+      <c r="K1285" s="10">
+        <v>48.048900000000003</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1286">
         <v>2809</v>
       </c>
@@ -42376,8 +43605,20 @@
       <c r="G1286" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1286" t="s">
+        <v>4240</v>
+      </c>
+      <c r="I1286" s="10">
+        <v>131320</v>
+      </c>
+      <c r="J1286" s="10">
+        <v>7.7804500000000001</v>
+      </c>
+      <c r="K1286" s="10">
+        <v>48.05415</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1287">
         <v>2810</v>
       </c>
@@ -42399,8 +43640,20 @@
       <c r="G1287" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1287" t="s">
+        <v>4241</v>
+      </c>
+      <c r="I1287" s="10">
+        <v>131293</v>
+      </c>
+      <c r="J1287" s="10">
+        <v>7.7624000000000004</v>
+      </c>
+      <c r="K1287" s="10">
+        <v>48.031829999999999</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1288">
         <v>2811</v>
       </c>
@@ -42422,8 +43675,20 @@
       <c r="G1288" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1288" t="s">
+        <v>4242</v>
+      </c>
+      <c r="I1288" s="10">
+        <v>129815</v>
+      </c>
+      <c r="J1288" s="10">
+        <v>7.7185699999999997</v>
+      </c>
+      <c r="K1288" s="10">
+        <v>48.023380000000003</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1289">
         <v>2812</v>
       </c>
@@ -42445,8 +43710,20 @@
       <c r="G1289" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1289" t="s">
+        <v>4243</v>
+      </c>
+      <c r="I1289" s="10">
+        <v>130109</v>
+      </c>
+      <c r="J1289" s="10">
+        <v>7.7158499999999997</v>
+      </c>
+      <c r="K1289" s="10">
+        <v>48.000520000000002</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1290">
         <v>2813</v>
       </c>
@@ -42468,8 +43745,20 @@
       <c r="G1290" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1290" t="s">
+        <v>4244</v>
+      </c>
+      <c r="I1290" s="10">
+        <v>134143</v>
+      </c>
+      <c r="J1290" s="10">
+        <v>7.6886400000000004</v>
+      </c>
+      <c r="K1290" s="10">
+        <v>48.017299999999999</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1291">
         <v>2814</v>
       </c>
@@ -42491,8 +43780,20 @@
       <c r="G1291" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1291" t="s">
+        <v>4244</v>
+      </c>
+      <c r="I1291" s="10">
+        <v>134143</v>
+      </c>
+      <c r="J1291" s="10">
+        <v>7.6886400000000004</v>
+      </c>
+      <c r="K1291" s="10">
+        <v>48.017299999999999</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1292">
         <v>2815</v>
       </c>
@@ -42514,8 +43815,20 @@
       <c r="G1292" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1292" t="s">
+        <v>4245</v>
+      </c>
+      <c r="I1292" s="10">
+        <v>133080</v>
+      </c>
+      <c r="J1292" s="10">
+        <v>7.82538</v>
+      </c>
+      <c r="K1292" s="10">
+        <v>48.08175</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1293">
         <v>2816</v>
       </c>
@@ -42538,7 +43851,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1294">
         <v>2817</v>
       </c>
@@ -42561,7 +43874,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1295">
         <v>2818</v>
       </c>
@@ -42584,7 +43897,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1296">
         <v>2819</v>
       </c>
@@ -46426,7 +47739,7 @@
         <v>47.871079999999999</v>
       </c>
     </row>
-    <row r="1441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1441" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1441">
         <v>2964</v>
       </c>
@@ -46461,7 +47774,7 @@
         <v>47.890799999999999</v>
       </c>
     </row>
-    <row r="1442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1442">
         <v>2965</v>
       </c>
@@ -46483,78 +47796,93 @@
       <c r="G1442" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="1443" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1443">
+      <c r="H1442" t="s">
+        <v>4064</v>
+      </c>
+      <c r="I1442" s="10">
+        <v>131282</v>
+      </c>
+      <c r="J1442" s="10">
+        <v>7.7007599999999998</v>
+      </c>
+      <c r="K1442" s="10">
+        <v>47.860610000000001</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="12">
         <v>2966</v>
       </c>
-      <c r="B1443" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1443" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1443" t="s">
+      <c r="B1443" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1443" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1443" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E1443">
+      <c r="E1443" s="12">
         <v>13</v>
       </c>
-      <c r="F1443">
+      <c r="F1443" s="12">
         <v>2</v>
       </c>
-      <c r="G1443" t="s">
+      <c r="G1443" s="12" t="s">
         <v>1082</v>
       </c>
-      <c r="H1443" t="s">
+      <c r="H1443" s="12" t="s">
         <v>4062</v>
       </c>
-      <c r="I1443" s="10">
+      <c r="I1443" s="12">
         <v>129250</v>
       </c>
-      <c r="J1443" s="10">
+      <c r="J1443" s="12">
         <v>7.6658099999999996</v>
       </c>
-      <c r="K1443" s="10">
+      <c r="K1443" s="12">
         <v>47.903149999999997</v>
       </c>
-    </row>
-    <row r="1444" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1444">
+      <c r="P1443" s="12" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1444" s="12">
         <v>2967</v>
       </c>
-      <c r="B1444" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1444" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1444" t="s">
+      <c r="B1444" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1444" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1444" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E1444">
+      <c r="E1444" s="12">
         <v>13</v>
       </c>
-      <c r="F1444">
+      <c r="F1444" s="12">
         <v>2</v>
       </c>
-      <c r="G1444" t="s">
+      <c r="G1444" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="H1444" t="s">
+      <c r="H1444" s="12" t="s">
         <v>4062</v>
       </c>
-      <c r="I1444" s="10">
+      <c r="I1444" s="12">
         <v>129250</v>
       </c>
-      <c r="J1444" s="10">
+      <c r="J1444" s="12">
         <v>7.6658099999999996</v>
       </c>
-      <c r="K1444" s="10">
+      <c r="K1444" s="12">
         <v>47.903149999999997</v>
       </c>
     </row>
-    <row r="1445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1445" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1445">
         <v>2968</v>
       </c>
@@ -46577,7 +47905,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1446" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1446">
         <v>2969</v>
       </c>
@@ -46600,7 +47928,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="1447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1447" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1447">
         <v>2970</v>
       </c>
@@ -46622,8 +47950,20 @@
       <c r="G1447" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="1448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1447" t="s">
+        <v>4065</v>
+      </c>
+      <c r="I1447" s="10">
+        <v>128346</v>
+      </c>
+      <c r="J1447" s="10">
+        <v>7.8118600000000002</v>
+      </c>
+      <c r="K1447" s="10">
+        <v>47.87153</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1448">
         <v>2971</v>
       </c>
@@ -46645,8 +47985,20 @@
       <c r="G1448" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="1449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1448" t="s">
+        <v>4066</v>
+      </c>
+      <c r="I1448" s="10">
+        <v>130866</v>
+      </c>
+      <c r="J1448" s="10">
+        <v>7.6968899999999998</v>
+      </c>
+      <c r="K1448" s="10">
+        <v>47.871339999999996</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1449">
         <v>2972</v>
       </c>
@@ -46668,8 +48020,20 @@
       <c r="G1449" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="1450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1449" t="s">
+        <v>4066</v>
+      </c>
+      <c r="I1449" s="10">
+        <v>130866</v>
+      </c>
+      <c r="J1449" s="10">
+        <v>7.6968899999999998</v>
+      </c>
+      <c r="K1449" s="10">
+        <v>47.871339999999996</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1450">
         <v>2973</v>
       </c>
@@ -46691,8 +48055,20 @@
       <c r="G1450" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="1451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1450" t="s">
+        <v>4067</v>
+      </c>
+      <c r="I1450" s="10">
+        <v>127909</v>
+      </c>
+      <c r="J1450" s="10">
+        <v>7.7218400000000003</v>
+      </c>
+      <c r="K1450" s="10">
+        <v>47.87162</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1451">
         <v>2974</v>
       </c>
@@ -46714,8 +48090,20 @@
       <c r="G1451" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="1452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1451" t="s">
+        <v>4068</v>
+      </c>
+      <c r="I1451" s="10">
+        <v>133366</v>
+      </c>
+      <c r="J1451" s="10">
+        <v>7.6847099999999999</v>
+      </c>
+      <c r="K1451" s="10">
+        <v>47.843400000000003</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1452">
         <v>2975</v>
       </c>
@@ -46737,8 +48125,20 @@
       <c r="G1452" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="1453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1452" t="s">
+        <v>4069</v>
+      </c>
+      <c r="I1452" s="10">
+        <v>130210</v>
+      </c>
+      <c r="J1452" s="10">
+        <v>7.7296199999999997</v>
+      </c>
+      <c r="K1452" s="10">
+        <v>47.881659999999997</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1453">
         <v>2976</v>
       </c>
@@ -46760,8 +48160,20 @@
       <c r="G1453" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="1454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1453" t="s">
+        <v>4069</v>
+      </c>
+      <c r="I1453" s="10">
+        <v>130210</v>
+      </c>
+      <c r="J1453" s="10">
+        <v>7.7296199999999997</v>
+      </c>
+      <c r="K1453" s="10">
+        <v>47.881659999999997</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1454">
         <v>2977</v>
       </c>
@@ -46783,8 +48195,20 @@
       <c r="G1454" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="1455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1454" t="s">
+        <v>4069</v>
+      </c>
+      <c r="I1454" s="10">
+        <v>130210</v>
+      </c>
+      <c r="J1454" s="10">
+        <v>7.7296199999999997</v>
+      </c>
+      <c r="K1454" s="10">
+        <v>47.881659999999997</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1455">
         <v>2978</v>
       </c>
@@ -46806,8 +48230,20 @@
       <c r="G1455" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="1456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1455" t="s">
+        <v>4070</v>
+      </c>
+      <c r="I1455" s="10">
+        <v>127565</v>
+      </c>
+      <c r="J1455" s="10">
+        <v>7.7072700000000003</v>
+      </c>
+      <c r="K1455" s="10">
+        <v>47.84122</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1456">
         <v>2979</v>
       </c>
@@ -46829,8 +48265,20 @@
       <c r="G1456" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="1457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1456" t="s">
+        <v>4070</v>
+      </c>
+      <c r="I1456" s="10">
+        <v>127565</v>
+      </c>
+      <c r="J1456" s="10">
+        <v>7.7072700000000003</v>
+      </c>
+      <c r="K1456" s="10">
+        <v>47.84122</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1457">
         <v>2980</v>
       </c>
@@ -46852,54 +48300,96 @@
       <c r="G1457" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="1458" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1458">
+      <c r="H1457" t="s">
+        <v>4070</v>
+      </c>
+      <c r="I1457" s="10">
+        <v>127565</v>
+      </c>
+      <c r="J1457" s="10">
+        <v>7.7072700000000003</v>
+      </c>
+      <c r="K1457" s="10">
+        <v>47.84122</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1458" s="12">
         <v>2981</v>
       </c>
-      <c r="B1458" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1458" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1458" t="s">
+      <c r="B1458" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1458" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1458" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E1458">
+      <c r="E1458" s="12">
         <v>13</v>
       </c>
-      <c r="F1458">
+      <c r="F1458" s="12">
         <v>10</v>
       </c>
-      <c r="G1458" t="s">
+      <c r="G1458" s="12" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="1459" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1459">
+      <c r="H1458" s="12" t="s">
+        <v>4071</v>
+      </c>
+      <c r="I1458" s="12">
+        <v>127413</v>
+      </c>
+      <c r="J1458" s="12">
+        <v>7.7864899999999997</v>
+      </c>
+      <c r="K1458" s="12">
+        <v>47.855179999999997</v>
+      </c>
+      <c r="P1458" s="12" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1459" s="12">
         <v>2982</v>
       </c>
-      <c r="B1459" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1459" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1459" t="s">
+      <c r="B1459" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1459" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1459" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="E1459">
-        <v>14</v>
-      </c>
-      <c r="F1459">
+      <c r="E1459" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1459" s="12">
         <v>1</v>
       </c>
-      <c r="G1459" t="s">
+      <c r="G1459" s="12" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="1460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1459" s="12" t="s">
+        <v>4073</v>
+      </c>
+      <c r="I1459" s="12">
+        <v>127862</v>
+      </c>
+      <c r="J1459" s="12">
+        <v>7.8358800000000004</v>
+      </c>
+      <c r="K1459" s="12">
+        <v>47.877760000000002</v>
+      </c>
+      <c r="P1459" s="12" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1460">
         <v>2983</v>
       </c>
@@ -46921,8 +48411,20 @@
       <c r="G1460" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="1461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1460" t="s">
+        <v>4075</v>
+      </c>
+      <c r="I1460" s="10">
+        <v>546041</v>
+      </c>
+      <c r="J1460" s="10">
+        <v>7.8752500000000003</v>
+      </c>
+      <c r="K1460" s="10">
+        <v>47.893799999999999</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1461">
         <v>2984</v>
       </c>
@@ -46944,8 +48446,20 @@
       <c r="G1461" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="1462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1461" t="s">
+        <v>4076</v>
+      </c>
+      <c r="I1461" s="10">
+        <v>130486</v>
+      </c>
+      <c r="J1461" s="10">
+        <v>7.89778</v>
+      </c>
+      <c r="K1461" s="10">
+        <v>47.900959999999998</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1462">
         <v>2985</v>
       </c>
@@ -46967,8 +48481,20 @@
       <c r="G1462" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="1463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1462" t="s">
+        <v>4077</v>
+      </c>
+      <c r="I1462" s="10">
+        <v>128154</v>
+      </c>
+      <c r="J1462" s="10">
+        <v>7.9488700000000003</v>
+      </c>
+      <c r="K1462" s="10">
+        <v>47.895110000000003</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1463">
         <v>2986</v>
       </c>
@@ -46990,8 +48516,20 @@
       <c r="G1463" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="1464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1463" t="s">
+        <v>4078</v>
+      </c>
+      <c r="I1463" s="10">
+        <v>129656</v>
+      </c>
+      <c r="J1463" s="10">
+        <v>7.8814000000000002</v>
+      </c>
+      <c r="K1463" s="10">
+        <v>47.84169</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1464">
         <v>2987</v>
       </c>
@@ -47013,8 +48551,20 @@
       <c r="G1464" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="1465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1464" t="s">
+        <v>4079</v>
+      </c>
+      <c r="I1464" s="10">
+        <v>127383</v>
+      </c>
+      <c r="J1464" s="10">
+        <v>7.9433499999999997</v>
+      </c>
+      <c r="K1464" s="10">
+        <v>47.850740000000002</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1465">
         <v>2988</v>
       </c>
@@ -47036,8 +48586,20 @@
       <c r="G1465" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="1466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1465" t="s">
+        <v>4080</v>
+      </c>
+      <c r="I1465" s="10">
+        <v>130998</v>
+      </c>
+      <c r="J1465" s="10">
+        <v>8.0952000000000002</v>
+      </c>
+      <c r="K1465" s="10">
+        <v>47.869750000000003</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1466">
         <v>2989</v>
       </c>
@@ -47059,8 +48621,20 @@
       <c r="G1466" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="1467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1466" t="s">
+        <v>4081</v>
+      </c>
+      <c r="I1466" s="10">
+        <v>131033</v>
+      </c>
+      <c r="J1466" s="10">
+        <v>8.1469799999999992</v>
+      </c>
+      <c r="K1466" s="10">
+        <v>47.86647</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1467">
         <v>2990</v>
       </c>
@@ -47082,8 +48656,20 @@
       <c r="G1467" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="1468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1467" t="s">
+        <v>4082</v>
+      </c>
+      <c r="I1467" s="10">
+        <v>134107</v>
+      </c>
+      <c r="J1467" s="10">
+        <v>8.1101600000000005</v>
+      </c>
+      <c r="K1467" s="10">
+        <v>47.857010000000002</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1468">
         <v>2991</v>
       </c>
@@ -47105,8 +48691,20 @@
       <c r="G1468" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="1469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1468" t="s">
+        <v>4083</v>
+      </c>
+      <c r="I1468" s="10">
+        <v>131271</v>
+      </c>
+      <c r="J1468" s="10">
+        <v>8.2548300000000001</v>
+      </c>
+      <c r="K1468" s="10">
+        <v>47.916020000000003</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1469">
         <v>2992</v>
       </c>
@@ -47128,8 +48726,20 @@
       <c r="G1469" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="1470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1469" t="s">
+        <v>4084</v>
+      </c>
+      <c r="I1469" s="10">
+        <v>130895</v>
+      </c>
+      <c r="J1469" s="10">
+        <v>8.2645599999999995</v>
+      </c>
+      <c r="K1469" s="10">
+        <v>47.849760000000003</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1470">
         <v>2993</v>
       </c>
@@ -47151,8 +48761,20 @@
       <c r="G1470" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1470" t="s">
+        <v>4085</v>
+      </c>
+      <c r="I1470" s="10">
+        <v>128520</v>
+      </c>
+      <c r="J1470" s="10">
+        <v>8.3106500000000008</v>
+      </c>
+      <c r="K1470" s="10">
+        <v>47.85812</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1471">
         <v>2994</v>
       </c>
@@ -47174,8 +48796,20 @@
       <c r="G1471" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="1472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1471" t="s">
+        <v>4086</v>
+      </c>
+      <c r="I1471" s="10">
+        <v>128745</v>
+      </c>
+      <c r="J1471" s="10">
+        <v>8.2967200000000005</v>
+      </c>
+      <c r="K1471" s="10">
+        <v>47.842460000000003</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1472">
         <v>2995</v>
       </c>
@@ -47197,8 +48831,20 @@
       <c r="G1472" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="1473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1472" t="s">
+        <v>4087</v>
+      </c>
+      <c r="I1472" s="10">
+        <v>129813</v>
+      </c>
+      <c r="J1472" s="10">
+        <v>8.2014399999999998</v>
+      </c>
+      <c r="K1472" s="10">
+        <v>47.868699999999997</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1473">
         <v>2996</v>
       </c>
@@ -47220,8 +48866,20 @@
       <c r="G1473" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="1474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1473" t="s">
+        <v>4032</v>
+      </c>
+      <c r="I1473" s="10">
+        <v>35565</v>
+      </c>
+      <c r="J1473" s="10">
+        <v>6.9473000000000003</v>
+      </c>
+      <c r="K1473" s="10">
+        <v>47.822119999999998</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1474">
         <v>2997</v>
       </c>
@@ -47243,8 +48901,20 @@
       <c r="G1474" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="1475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1474" t="s">
+        <v>4088</v>
+      </c>
+      <c r="I1474" s="10">
+        <v>32938</v>
+      </c>
+      <c r="J1474" s="10">
+        <v>6.9068800000000001</v>
+      </c>
+      <c r="K1474" s="10">
+        <v>47.806939999999997</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1475">
         <v>2998</v>
       </c>
@@ -47266,8 +48936,20 @@
       <c r="G1475" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="1476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1475" t="s">
+        <v>4089</v>
+      </c>
+      <c r="I1475" s="10">
+        <v>24847</v>
+      </c>
+      <c r="J1475" s="10">
+        <v>6.9321099999999998</v>
+      </c>
+      <c r="K1475" s="10">
+        <v>47.805590000000002</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1476">
         <v>2999</v>
       </c>
@@ -47289,8 +48971,20 @@
       <c r="G1476" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="1477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1476" t="s">
+        <v>4090</v>
+      </c>
+      <c r="I1476" s="10">
+        <v>26248</v>
+      </c>
+      <c r="J1476" s="10">
+        <v>6.9432400000000003</v>
+      </c>
+      <c r="K1476" s="10">
+        <v>47.80838</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1477">
         <v>3000</v>
       </c>
@@ -47312,8 +49006,20 @@
       <c r="G1477" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="1478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1477" t="s">
+        <v>4091</v>
+      </c>
+      <c r="I1477" s="10">
+        <v>27604</v>
+      </c>
+      <c r="J1477" s="10">
+        <v>6.9596499999999999</v>
+      </c>
+      <c r="K1477" s="10">
+        <v>47.799039999999998</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1478">
         <v>3001</v>
       </c>
@@ -47335,8 +49041,20 @@
       <c r="G1478" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="1479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1478" t="s">
+        <v>4092</v>
+      </c>
+      <c r="I1478" s="10">
+        <v>29293</v>
+      </c>
+      <c r="J1478" s="10">
+        <v>6.97173</v>
+      </c>
+      <c r="K1478" s="10">
+        <v>47.783610000000003</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1479">
         <v>3002</v>
       </c>
@@ -47358,8 +49076,20 @@
       <c r="G1479" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="1480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1479" t="s">
+        <v>4093</v>
+      </c>
+      <c r="I1479" s="10">
+        <v>31069</v>
+      </c>
+      <c r="J1479" s="10">
+        <v>6.9938599999999997</v>
+      </c>
+      <c r="K1479" s="10">
+        <v>47.7727</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1480">
         <v>3003</v>
       </c>
@@ -47381,8 +49111,20 @@
       <c r="G1480" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="1481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1480" t="s">
+        <v>4094</v>
+      </c>
+      <c r="I1480" s="10">
+        <v>31922</v>
+      </c>
+      <c r="J1480" s="10">
+        <v>7.0221600000000004</v>
+      </c>
+      <c r="K1480" s="10">
+        <v>47.757779999999997</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1481">
         <v>3004</v>
       </c>
@@ -47404,31 +49146,58 @@
       <c r="G1481" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="1482" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1482">
+      <c r="H1481" t="s">
+        <v>4095</v>
+      </c>
+      <c r="I1481" s="10">
+        <v>27259</v>
+      </c>
+      <c r="J1481" s="10">
+        <v>7.0297299999999998</v>
+      </c>
+      <c r="K1481" s="10">
+        <v>47.795299999999997</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1482" s="26">
         <v>3005</v>
       </c>
-      <c r="B1482" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1482" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1482" t="s">
+      <c r="B1482" s="27">
+        <v>44826</v>
+      </c>
+      <c r="C1482" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1482" s="26" t="s">
         <v>1112</v>
       </c>
-      <c r="E1482">
+      <c r="E1482" s="26">
         <v>9</v>
       </c>
-      <c r="F1482">
+      <c r="F1482" s="26">
         <v>3</v>
       </c>
-      <c r="G1482" t="s">
+      <c r="G1482" s="26" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="1483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1482" s="26" t="s">
+        <v>4096</v>
+      </c>
+      <c r="I1482" s="26">
+        <v>23802</v>
+      </c>
+      <c r="J1482" s="26">
+        <v>7.0794699999999997</v>
+      </c>
+      <c r="K1482" s="26">
+        <v>47.82929</v>
+      </c>
+      <c r="P1482" s="26" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1483">
         <v>3006</v>
       </c>
@@ -47450,8 +49219,20 @@
       <c r="G1483" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="1484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1483" t="s">
+        <v>4097</v>
+      </c>
+      <c r="I1483" s="10">
+        <v>24343</v>
+      </c>
+      <c r="J1483" s="10">
+        <v>7.0544000000000002</v>
+      </c>
+      <c r="K1483" s="10">
+        <v>47.755809999999997</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1484">
         <v>3007</v>
       </c>
@@ -47473,8 +49254,20 @@
       <c r="G1484" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="1485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1484" t="s">
+        <v>4098</v>
+      </c>
+      <c r="I1484" s="10">
+        <v>27390</v>
+      </c>
+      <c r="J1484" s="10">
+        <v>7.0586799999999998</v>
+      </c>
+      <c r="K1484" s="10">
+        <v>47.775269999999999</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1485">
         <v>3008</v>
       </c>
@@ -47496,8 +49289,20 @@
       <c r="G1485" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="1486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1485" t="s">
+        <v>4099</v>
+      </c>
+      <c r="I1485" s="10">
+        <v>31114</v>
+      </c>
+      <c r="J1485" s="10">
+        <v>7.0708399999999996</v>
+      </c>
+      <c r="K1485" s="10">
+        <v>47.789349999999999</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1486">
         <v>3009</v>
       </c>
@@ -47519,31 +49324,55 @@
       <c r="G1486" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="1487" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1487">
+      <c r="H1486" t="s">
+        <v>4100</v>
+      </c>
+      <c r="I1486" s="10">
+        <v>27849</v>
+      </c>
+      <c r="J1486" s="10">
+        <v>7.09999</v>
+      </c>
+      <c r="K1486" s="10">
+        <v>47.793050000000001</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="23">
         <v>3010</v>
       </c>
-      <c r="B1487" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1487" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1487" t="s">
+      <c r="B1487" s="24">
+        <v>44826</v>
+      </c>
+      <c r="C1487" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1487" s="23" t="s">
         <v>1112</v>
       </c>
-      <c r="E1487">
+      <c r="E1487" s="23">
         <v>9</v>
       </c>
-      <c r="F1487">
+      <c r="F1487" s="23">
         <v>8</v>
       </c>
-      <c r="G1487" t="s">
+      <c r="G1487" s="23" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="1488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1487" s="23" t="s">
+        <v>4101</v>
+      </c>
+      <c r="I1487" s="25">
+        <v>26121</v>
+      </c>
+      <c r="J1487" s="25">
+        <v>7.1033499999999998</v>
+      </c>
+      <c r="K1487" s="25">
+        <v>47.810189999999999</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1488">
         <v>3011</v>
       </c>
@@ -47565,8 +49394,20 @@
       <c r="G1488" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="1489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1488" t="s">
+        <v>4102</v>
+      </c>
+      <c r="I1488" s="10">
+        <v>35913</v>
+      </c>
+      <c r="J1488" s="10">
+        <v>7.1220600000000003</v>
+      </c>
+      <c r="K1488" s="10">
+        <v>47.807040000000001</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1489">
         <v>3012</v>
       </c>
@@ -47588,31 +49429,58 @@
       <c r="G1489" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="1490" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1490">
+      <c r="H1489" t="s">
+        <v>4103</v>
+      </c>
+      <c r="I1489" s="10">
+        <v>35270</v>
+      </c>
+      <c r="J1489" s="10">
+        <v>7.1548699999999998</v>
+      </c>
+      <c r="K1489" s="10">
+        <v>47.820410000000003</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="12">
         <v>3013</v>
       </c>
-      <c r="B1490" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1490" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1490" t="s">
+      <c r="B1490" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1490" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1490" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1490">
+      <c r="E1490" s="12">
         <v>9</v>
       </c>
-      <c r="F1490">
+      <c r="F1490" s="12">
         <v>11</v>
       </c>
-      <c r="G1490" t="s">
+      <c r="G1490" s="12" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="1491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1490" s="12" t="s">
+        <v>4104</v>
+      </c>
+      <c r="I1490" s="12">
+        <v>27999</v>
+      </c>
+      <c r="J1490" s="12">
+        <v>7.1783700000000001</v>
+      </c>
+      <c r="K1490" s="12">
+        <v>47.809179999999998</v>
+      </c>
+      <c r="P1490" s="12" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1491">
         <v>3014</v>
       </c>
@@ -47634,8 +49502,20 @@
       <c r="G1491" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="1492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1491" t="s">
+        <v>4106</v>
+      </c>
+      <c r="I1491" s="10">
+        <v>32272</v>
+      </c>
+      <c r="J1491" s="10">
+        <v>7.1335199999999999</v>
+      </c>
+      <c r="K1491" s="10">
+        <v>47.776919999999997</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1492">
         <v>3015</v>
       </c>
@@ -47657,8 +49537,20 @@
       <c r="G1492" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1492" t="s">
+        <v>4107</v>
+      </c>
+      <c r="I1492" s="10">
+        <v>25178</v>
+      </c>
+      <c r="J1492" s="10">
+        <v>7.1506499999999997</v>
+      </c>
+      <c r="K1492" s="10">
+        <v>47.761800000000001</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1493">
         <v>3016</v>
       </c>
@@ -47680,8 +49572,20 @@
       <c r="G1493" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1493" t="s">
+        <v>4108</v>
+      </c>
+      <c r="I1493" s="10">
+        <v>23152</v>
+      </c>
+      <c r="J1493" s="10">
+        <v>7.1671399999999998</v>
+      </c>
+      <c r="K1493" s="10">
+        <v>47.752719999999997</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1494">
         <v>3017</v>
       </c>
@@ -47703,8 +49607,20 @@
       <c r="G1494" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="1495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1494" t="s">
+        <v>4110</v>
+      </c>
+      <c r="I1494" s="10">
+        <v>35077</v>
+      </c>
+      <c r="J1494" s="10">
+        <v>7.1780400000000002</v>
+      </c>
+      <c r="K1494" s="10">
+        <v>47.819809999999997</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1495">
         <v>3018</v>
       </c>
@@ -47726,8 +49642,20 @@
       <c r="G1495" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1495" t="s">
+        <v>4111</v>
+      </c>
+      <c r="I1495" s="10" t="s">
+        <v>4112</v>
+      </c>
+      <c r="J1495" s="10">
+        <v>7.2406300000000003</v>
+      </c>
+      <c r="K1495" s="10">
+        <v>47.810470000000002</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1496">
         <v>3019</v>
       </c>
@@ -47749,8 +49677,20 @@
       <c r="G1496" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="1497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1496" t="s">
+        <v>4113</v>
+      </c>
+      <c r="I1496" s="10">
+        <v>26546</v>
+      </c>
+      <c r="J1496" s="10">
+        <v>7.2550400000000002</v>
+      </c>
+      <c r="K1496" s="10">
+        <v>47.826479999999997</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1497">
         <v>3020</v>
       </c>
@@ -47772,8 +49712,20 @@
       <c r="G1497" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="1498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1497" t="s">
+        <v>4114</v>
+      </c>
+      <c r="I1497" s="10">
+        <v>25783</v>
+      </c>
+      <c r="J1497" s="10">
+        <v>7.2817100000000003</v>
+      </c>
+      <c r="K1497" s="10">
+        <v>47.7605</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1498">
         <v>3021</v>
       </c>
@@ -47796,7 +49748,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="1499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1499">
         <v>3022</v>
       </c>
@@ -47819,352 +49771,535 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="1500" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1500">
+    <row r="1500" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="12">
         <v>3023</v>
       </c>
-      <c r="B1500" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1500" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1500" t="s">
+      <c r="B1500" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1500" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1500" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1500">
+      <c r="E1500" s="12">
         <v>10</v>
       </c>
-      <c r="F1500">
+      <c r="F1500" s="12">
         <v>7</v>
       </c>
-      <c r="G1500" t="s">
+      <c r="G1500" s="12" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="1501" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1501">
+      <c r="H1500" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1500" s="12" t="s">
+        <v>4116</v>
+      </c>
+      <c r="J1500" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1500" s="12">
+        <v>47.7517</v>
+      </c>
+      <c r="P1500" s="12" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="12">
         <v>3024</v>
       </c>
-      <c r="B1501" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1501" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1501" t="s">
+      <c r="B1501" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1501" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1501" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1501">
+      <c r="E1501" s="12">
         <v>10</v>
       </c>
-      <c r="F1501">
+      <c r="F1501" s="12">
         <v>7</v>
       </c>
-      <c r="G1501" t="s">
+      <c r="G1501" s="12" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="1502" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1502">
+      <c r="H1501" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1501" s="12" t="s">
+        <v>4118</v>
+      </c>
+      <c r="J1501" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1501" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="12">
         <v>3025</v>
       </c>
-      <c r="B1502" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1502" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1502" t="s">
+      <c r="B1502" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1502" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1502" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1502">
+      <c r="E1502" s="12">
         <v>10</v>
       </c>
-      <c r="F1502">
+      <c r="F1502" s="12">
         <v>7</v>
       </c>
-      <c r="G1502" t="s">
+      <c r="G1502" s="12" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="1503" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1503">
+      <c r="H1502" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1502" s="12" t="s">
+        <v>4119</v>
+      </c>
+      <c r="J1502" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1502" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="12">
         <v>3026</v>
       </c>
-      <c r="B1503" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1503" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1503" t="s">
+      <c r="B1503" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1503" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1503" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1503">
+      <c r="E1503" s="12">
         <v>10</v>
       </c>
-      <c r="F1503">
+      <c r="F1503" s="12">
         <v>7</v>
       </c>
-      <c r="G1503" t="s">
+      <c r="G1503" s="12" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="1504" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1504">
+      <c r="H1503" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1503" s="12" t="s">
+        <v>4120</v>
+      </c>
+      <c r="J1503" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1503" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="12">
         <v>3027</v>
       </c>
-      <c r="B1504" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1504" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1504" t="s">
+      <c r="B1504" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1504" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1504" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1504">
+      <c r="E1504" s="12">
         <v>10</v>
       </c>
-      <c r="F1504">
+      <c r="F1504" s="12">
         <v>7</v>
       </c>
-      <c r="G1504" t="s">
+      <c r="G1504" s="12" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="1505" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1505">
+      <c r="H1504" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1504" s="12" t="s">
+        <v>4121</v>
+      </c>
+      <c r="J1504" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1504" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1505" s="12">
         <v>3028</v>
       </c>
-      <c r="B1505" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1505" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1505" t="s">
+      <c r="B1505" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1505" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1505" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1505">
+      <c r="E1505" s="12">
         <v>10</v>
       </c>
-      <c r="F1505">
+      <c r="F1505" s="12">
         <v>7</v>
       </c>
-      <c r="G1505" t="s">
+      <c r="G1505" s="12" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="1506" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1506">
+      <c r="H1505" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1505" s="12" t="s">
+        <v>4122</v>
+      </c>
+      <c r="J1505" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1505" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="12">
         <v>3029</v>
       </c>
-      <c r="B1506" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1506" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1506" t="s">
+      <c r="B1506" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1506" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1506" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1506">
+      <c r="E1506" s="12">
         <v>10</v>
       </c>
-      <c r="F1506">
+      <c r="F1506" s="12">
         <v>7</v>
       </c>
-      <c r="G1506" t="s">
+      <c r="G1506" s="12" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="1507" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1507">
+      <c r="H1506" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1506" s="12" t="s">
+        <v>4123</v>
+      </c>
+      <c r="J1506" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1506" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="12">
         <v>3030</v>
       </c>
-      <c r="B1507" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1507" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1507" t="s">
+      <c r="B1507" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1507" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1507" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1507">
+      <c r="E1507" s="12">
         <v>10</v>
       </c>
-      <c r="F1507">
+      <c r="F1507" s="12">
         <v>7</v>
       </c>
-      <c r="G1507" t="s">
+      <c r="G1507" s="12" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1508">
+      <c r="H1507" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1507" s="12" t="s">
+        <v>4124</v>
+      </c>
+      <c r="J1507" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1507" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="12">
         <v>3031</v>
       </c>
-      <c r="B1508" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1508" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1508" t="s">
+      <c r="B1508" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1508" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1508" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1508">
+      <c r="E1508" s="12">
         <v>10</v>
       </c>
-      <c r="F1508">
+      <c r="F1508" s="12">
         <v>7</v>
       </c>
-      <c r="G1508" t="s">
+      <c r="G1508" s="12" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="1509" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1509">
+      <c r="H1508" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1508" s="12" t="s">
+        <v>4125</v>
+      </c>
+      <c r="J1508" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1508" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="12">
         <v>3032</v>
       </c>
-      <c r="B1509" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1509" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1509" t="s">
+      <c r="B1509" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1509" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1509" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1509">
+      <c r="E1509" s="12">
         <v>10</v>
       </c>
-      <c r="F1509">
+      <c r="F1509" s="12">
         <v>7</v>
       </c>
-      <c r="G1509" t="s">
+      <c r="G1509" s="12" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="1510" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1510">
+      <c r="H1509" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1509" s="12" t="s">
+        <v>4126</v>
+      </c>
+      <c r="J1509" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1509" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="12">
         <v>3033</v>
       </c>
-      <c r="B1510" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1510" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1510" t="s">
+      <c r="B1510" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1510" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1510" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1510">
+      <c r="E1510" s="12">
         <v>10</v>
       </c>
-      <c r="F1510">
+      <c r="F1510" s="12">
         <v>7</v>
       </c>
-      <c r="G1510" t="s">
+      <c r="G1510" s="12" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="1511" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1511">
+      <c r="H1510" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1510" s="12" t="s">
+        <v>4127</v>
+      </c>
+      <c r="J1510" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1510" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="12">
         <v>3034</v>
       </c>
-      <c r="B1511" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1511" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1511" t="s">
+      <c r="B1511" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1511" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1511" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1511">
+      <c r="E1511" s="12">
         <v>10</v>
       </c>
-      <c r="F1511">
+      <c r="F1511" s="12">
         <v>7</v>
       </c>
-      <c r="G1511" t="s">
+      <c r="G1511" s="12" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="1512" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1512">
+      <c r="H1511" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1511" s="12" t="s">
+        <v>4128</v>
+      </c>
+      <c r="J1511" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1511" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="12">
         <v>3035</v>
       </c>
-      <c r="B1512" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1512" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1512" t="s">
+      <c r="B1512" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1512" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1512" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1512">
+      <c r="E1512" s="12">
         <v>10</v>
       </c>
-      <c r="F1512">
+      <c r="F1512" s="12">
         <v>7</v>
       </c>
-      <c r="G1512" t="s">
+      <c r="G1512" s="12" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="1513" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1513">
+      <c r="H1512" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1512" s="12" t="s">
+        <v>4129</v>
+      </c>
+      <c r="J1512" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1512" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="12">
         <v>3036</v>
       </c>
-      <c r="B1513" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1513" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1513" t="s">
+      <c r="B1513" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1513" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1513" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1513">
+      <c r="E1513" s="12">
         <v>10</v>
       </c>
-      <c r="F1513">
+      <c r="F1513" s="12">
         <v>7</v>
       </c>
-      <c r="G1513" t="s">
+      <c r="G1513" s="12" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="1514" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1514">
+      <c r="H1513" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1513" s="12" t="s">
+        <v>4130</v>
+      </c>
+      <c r="J1513" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1513" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="12">
         <v>3037</v>
       </c>
-      <c r="B1514" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1514" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1514" t="s">
+      <c r="B1514" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1514" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1514" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1514">
+      <c r="E1514" s="12">
         <v>10</v>
       </c>
-      <c r="F1514">
+      <c r="F1514" s="12">
         <v>7</v>
       </c>
-      <c r="G1514" t="s">
+      <c r="G1514" s="12" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="1515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1514" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="I1514" s="12" t="s">
+        <v>4131</v>
+      </c>
+      <c r="J1514" s="12">
+        <v>7.34375</v>
+      </c>
+      <c r="K1514" s="12">
+        <v>47.7517</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1515">
         <v>3038</v>
       </c>
@@ -48186,54 +50321,96 @@
       <c r="G1515" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="1516" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1516">
+      <c r="H1515" s="10" t="s">
+        <v>4132</v>
+      </c>
+      <c r="I1515" s="10" t="s">
+        <v>4133</v>
+      </c>
+      <c r="J1515" s="10">
+        <v>7.3483900000000002</v>
+      </c>
+      <c r="K1515" s="10">
+        <v>47.782170000000001</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="12">
         <v>3039</v>
       </c>
-      <c r="B1516" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1516" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1516" t="s">
+      <c r="B1516" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1516" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1516" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1516">
+      <c r="E1516" s="12">
         <v>11</v>
       </c>
-      <c r="F1516">
+      <c r="F1516" s="12">
         <v>2</v>
       </c>
-      <c r="G1516" t="s">
+      <c r="G1516" s="12" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="1517" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1517">
+      <c r="H1516" s="12" t="s">
+        <v>4134</v>
+      </c>
+      <c r="I1516" s="12">
+        <v>32992</v>
+      </c>
+      <c r="J1516" s="12">
+        <v>7.3357900000000003</v>
+      </c>
+      <c r="K1516" s="12">
+        <v>47.79025</v>
+      </c>
+      <c r="P1516" s="12" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="12">
         <v>3040</v>
       </c>
-      <c r="B1517" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1517" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1517" t="s">
+      <c r="B1517" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1517" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1517" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1517">
+      <c r="E1517" s="12">
         <v>11</v>
       </c>
-      <c r="F1517">
+      <c r="F1517" s="12">
         <v>3</v>
       </c>
-      <c r="G1517" t="s">
+      <c r="G1517" s="12" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="1518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1517" s="12" t="s">
+        <v>4136</v>
+      </c>
+      <c r="I1517" s="12">
+        <v>31350</v>
+      </c>
+      <c r="J1517" s="12">
+        <v>7.3399299999999998</v>
+      </c>
+      <c r="K1517" s="12">
+        <v>47.810850000000002</v>
+      </c>
+      <c r="P1517" s="12" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1518">
         <v>3041</v>
       </c>
@@ -48255,8 +50432,20 @@
       <c r="G1518" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="1519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1518" s="10" t="s">
+        <v>4137</v>
+      </c>
+      <c r="I1518" s="10">
+        <v>28716</v>
+      </c>
+      <c r="J1518" s="10">
+        <v>7.3586799999999997</v>
+      </c>
+      <c r="K1518" s="10">
+        <v>47.822159999999997</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1519">
         <v>3042</v>
       </c>
@@ -48278,8 +50467,20 @@
       <c r="G1519" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1519" s="10" t="s">
+        <v>4138</v>
+      </c>
+      <c r="I1519" s="10">
+        <v>25073</v>
+      </c>
+      <c r="J1519" s="10">
+        <v>7.3697999999999997</v>
+      </c>
+      <c r="K1519" s="10">
+        <v>47.788519999999998</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1520">
         <v>3043</v>
       </c>
@@ -48301,8 +50502,20 @@
       <c r="G1520" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="1521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1520" s="10" t="s">
+        <v>4139</v>
+      </c>
+      <c r="I1520" s="10">
+        <v>30438</v>
+      </c>
+      <c r="J1520" s="10">
+        <v>7.3780599999999996</v>
+      </c>
+      <c r="K1520" s="10">
+        <v>47.801519999999996</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1521">
         <v>3044</v>
       </c>
@@ -48324,8 +50537,20 @@
       <c r="G1521" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="1522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1521" s="10" t="s">
+        <v>4140</v>
+      </c>
+      <c r="I1521" s="10">
+        <v>27813</v>
+      </c>
+      <c r="J1521" s="10">
+        <v>7.3827800000000003</v>
+      </c>
+      <c r="K1521" s="10">
+        <v>47.817390000000003</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1522">
         <v>3045</v>
       </c>
@@ -48347,8 +50572,20 @@
       <c r="G1522" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="1523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1522" s="10" t="s">
+        <v>4141</v>
+      </c>
+      <c r="I1522" s="10" t="s">
+        <v>4142</v>
+      </c>
+      <c r="J1522" s="10">
+        <v>7.3599699999999997</v>
+      </c>
+      <c r="K1522" s="10">
+        <v>47.768940000000001</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1523">
         <v>3046</v>
       </c>
@@ -48370,8 +50607,20 @@
       <c r="G1523" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="1524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1523" s="10" t="s">
+        <v>4143</v>
+      </c>
+      <c r="I1523" s="10">
+        <v>27090</v>
+      </c>
+      <c r="J1523" s="10">
+        <v>7.5050299999999996</v>
+      </c>
+      <c r="K1523" s="10">
+        <v>47.759079999999997</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1524">
         <v>3047</v>
       </c>
@@ -48393,8 +50642,20 @@
       <c r="G1524" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="1525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1524" s="10" t="s">
+        <v>4144</v>
+      </c>
+      <c r="I1524" s="10">
+        <v>24722</v>
+      </c>
+      <c r="J1524" s="10">
+        <v>7.5064599999999997</v>
+      </c>
+      <c r="K1524" s="10">
+        <v>47.786610000000003</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1525">
         <v>3048</v>
       </c>
@@ -48416,8 +50677,20 @@
       <c r="G1525" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="1526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1525" s="10" t="s">
+        <v>4145</v>
+      </c>
+      <c r="I1525" s="10">
+        <v>35031</v>
+      </c>
+      <c r="J1525" s="10">
+        <v>7.5396900000000002</v>
+      </c>
+      <c r="K1525" s="10">
+        <v>47.816429999999997</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1526">
         <v>3049</v>
       </c>
@@ -48439,8 +50712,20 @@
       <c r="G1526" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="1527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1526" s="10" t="s">
+        <v>4146</v>
+      </c>
+      <c r="I1526" s="10">
+        <v>35229</v>
+      </c>
+      <c r="J1526" s="10">
+        <v>7.51396</v>
+      </c>
+      <c r="K1526" s="10">
+        <v>47.824680000000001</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1527">
         <v>3050</v>
       </c>
@@ -48462,8 +50747,20 @@
       <c r="G1527" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="1528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1527" s="10" t="s">
+        <v>4147</v>
+      </c>
+      <c r="I1527" s="10">
+        <v>129072</v>
+      </c>
+      <c r="J1527" s="10">
+        <v>7.5601200000000004</v>
+      </c>
+      <c r="K1527" s="10">
+        <v>47.813929999999999</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1528">
         <v>3051</v>
       </c>
@@ -48485,8 +50782,20 @@
       <c r="G1528" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="1529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1528" s="10" t="s">
+        <v>4148</v>
+      </c>
+      <c r="I1528" s="10">
+        <v>132886</v>
+      </c>
+      <c r="J1528" s="10">
+        <v>7.5762400000000003</v>
+      </c>
+      <c r="K1528" s="10">
+        <v>47.755789999999998</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1529">
         <v>3052</v>
       </c>
@@ -48508,8 +50817,20 @@
       <c r="G1529" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="1530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1529" s="10" t="s">
+        <v>4149</v>
+      </c>
+      <c r="I1529" s="10">
+        <v>134074</v>
+      </c>
+      <c r="J1529" s="10">
+        <v>7.5922099999999997</v>
+      </c>
+      <c r="K1529" s="10">
+        <v>47.787759999999999</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1530">
         <v>3053</v>
       </c>
@@ -48531,8 +50852,20 @@
       <c r="G1530" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="1531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1530" s="10" t="s">
+        <v>4150</v>
+      </c>
+      <c r="I1530" s="10">
+        <v>129726</v>
+      </c>
+      <c r="J1530" s="10">
+        <v>7.6208</v>
+      </c>
+      <c r="K1530" s="10">
+        <v>47.828679999999999</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1531">
         <v>3054</v>
       </c>
@@ -48555,7 +50888,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="1532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1532">
         <v>3055</v>
       </c>
@@ -48578,7 +50911,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="1533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1533">
         <v>3056</v>
       </c>
@@ -48600,8 +50933,20 @@
       <c r="G1533" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="1534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1533" s="10" t="s">
+        <v>4151</v>
+      </c>
+      <c r="I1533" s="10">
+        <v>130830</v>
+      </c>
+      <c r="J1533" s="10">
+        <v>7.6408100000000001</v>
+      </c>
+      <c r="K1533" s="10">
+        <v>47.773699999999998</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1534">
         <v>3057</v>
       </c>
@@ -48623,31 +50968,55 @@
       <c r="G1534" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="1535" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1535">
+      <c r="H1534" s="10" t="s">
+        <v>4152</v>
+      </c>
+      <c r="I1534" s="10">
+        <v>127959</v>
+      </c>
+      <c r="J1534" s="10">
+        <v>7.65665</v>
+      </c>
+      <c r="K1534" s="10">
+        <v>47.786850000000001</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1535" s="10">
         <v>3058</v>
       </c>
-      <c r="B1535" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1535" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1535" t="s">
+      <c r="B1535" s="14">
+        <v>44826</v>
+      </c>
+      <c r="C1535" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1535" s="10" t="s">
         <v>1112</v>
       </c>
-      <c r="E1535">
+      <c r="E1535" s="10">
         <v>12</v>
       </c>
-      <c r="F1535">
+      <c r="F1535" s="10">
         <v>10</v>
       </c>
-      <c r="G1535" t="s">
+      <c r="G1535" s="10" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="1536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1535" s="10" t="s">
+        <v>4153</v>
+      </c>
+      <c r="I1535" s="10">
+        <v>132603</v>
+      </c>
+      <c r="J1535" s="10">
+        <v>7.6443399999999997</v>
+      </c>
+      <c r="K1535" s="10">
+        <v>47.756770000000003</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1536">
         <v>3059</v>
       </c>
@@ -48669,31 +51038,58 @@
       <c r="G1536" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="1537" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1537">
+      <c r="H1536" s="10" t="s">
+        <v>4154</v>
+      </c>
+      <c r="I1536" s="10">
+        <v>130471</v>
+      </c>
+      <c r="J1536" s="10">
+        <v>7.6519500000000003</v>
+      </c>
+      <c r="K1536" s="10">
+        <v>47.821640000000002</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1537" s="12">
         <v>3060</v>
       </c>
-      <c r="B1537" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1537" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1537" t="s">
+      <c r="B1537" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1537" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1537" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1537">
+      <c r="E1537" s="12">
         <v>13</v>
       </c>
-      <c r="F1537">
+      <c r="F1537" s="12">
         <v>1</v>
       </c>
-      <c r="G1537" t="s">
+      <c r="G1537" s="12" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="1538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1537" s="12" t="s">
+        <v>4155</v>
+      </c>
+      <c r="I1537" s="12">
+        <v>133439</v>
+      </c>
+      <c r="J1537" s="12">
+        <v>7.6723699999999999</v>
+      </c>
+      <c r="K1537" s="12">
+        <v>47.827440000000003</v>
+      </c>
+      <c r="P1537" s="12" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1538">
         <v>3061</v>
       </c>
@@ -48715,31 +51111,58 @@
       <c r="G1538" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="1539" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1539">
+      <c r="H1538" s="10" t="s">
+        <v>4157</v>
+      </c>
+      <c r="I1538" s="10">
+        <v>130399</v>
+      </c>
+      <c r="J1538" s="10">
+        <v>7.6793399999999998</v>
+      </c>
+      <c r="K1538" s="10">
+        <v>47.805549999999997</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1539" s="12">
         <v>3062</v>
       </c>
-      <c r="B1539" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1539" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1539" t="s">
+      <c r="B1539" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1539" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1539" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1539">
+      <c r="E1539" s="12">
         <v>13</v>
       </c>
-      <c r="F1539">
+      <c r="F1539" s="12">
         <v>3</v>
       </c>
-      <c r="G1539" t="s">
+      <c r="G1539" s="12" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="1540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1539" s="12" t="s">
+        <v>4158</v>
+      </c>
+      <c r="I1539" s="12">
+        <v>134157</v>
+      </c>
+      <c r="J1539" s="12">
+        <v>7.7268800000000004</v>
+      </c>
+      <c r="K1539" s="12">
+        <v>47.771160000000002</v>
+      </c>
+      <c r="P1539" s="12" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1540">
         <v>3063</v>
       </c>
@@ -48762,7 +51185,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="1541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1541">
         <v>3064</v>
       </c>
@@ -48785,7 +51208,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="1542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1542">
         <v>3065</v>
       </c>
@@ -48807,8 +51230,20 @@
       <c r="G1542" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="1543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1542" t="s">
+        <v>4160</v>
+      </c>
+      <c r="I1542" s="10">
+        <v>129312</v>
+      </c>
+      <c r="J1542" s="10">
+        <v>7.8268599999999999</v>
+      </c>
+      <c r="K1542" s="10">
+        <v>47.776159999999997</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1543">
         <v>3066</v>
       </c>
@@ -48830,31 +51265,58 @@
       <c r="G1543" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="1544" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1544">
+      <c r="H1543" t="s">
+        <v>4161</v>
+      </c>
+      <c r="I1543" s="10">
+        <v>128307</v>
+      </c>
+      <c r="J1543" s="10">
+        <v>7.8270999999999997</v>
+      </c>
+      <c r="K1543" s="10">
+        <v>47.795430000000003</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1544" s="12">
         <v>3067</v>
       </c>
-      <c r="B1544" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1544" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1544" t="s">
+      <c r="B1544" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1544" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1544" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1544">
+      <c r="E1544" s="12">
         <v>13</v>
       </c>
-      <c r="F1544">
+      <c r="F1544" s="12">
         <v>9</v>
       </c>
-      <c r="G1544" t="s">
+      <c r="G1544" s="12" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="1545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1544" s="12" t="s">
+        <v>4162</v>
+      </c>
+      <c r="I1544" s="26">
+        <v>133351</v>
+      </c>
+      <c r="J1544" s="26">
+        <v>7.7943499999999997</v>
+      </c>
+      <c r="K1544" s="26">
+        <v>47.841360000000002</v>
+      </c>
+      <c r="P1544" s="12" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1545">
         <v>3068</v>
       </c>
@@ -48876,8 +51338,20 @@
       <c r="G1545" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="1546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1545" t="s">
+        <v>4164</v>
+      </c>
+      <c r="I1545" s="10">
+        <v>132917</v>
+      </c>
+      <c r="J1545" s="10">
+        <v>7.7972400000000004</v>
+      </c>
+      <c r="K1545" s="10">
+        <v>47.75076</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1546">
         <v>3069</v>
       </c>
@@ -48899,8 +51373,20 @@
       <c r="G1546" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="1547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1546" t="s">
+        <v>4165</v>
+      </c>
+      <c r="I1546" s="10">
+        <v>133317</v>
+      </c>
+      <c r="J1546" s="10">
+        <v>7.6990400000000001</v>
+      </c>
+      <c r="K1546" s="10">
+        <v>47.807429999999997</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1547">
         <v>3070</v>
       </c>
@@ -48922,8 +51408,20 @@
       <c r="G1547" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="1548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1547" t="s">
+        <v>4166</v>
+      </c>
+      <c r="I1547" s="10">
+        <v>130564</v>
+      </c>
+      <c r="J1547" s="10">
+        <v>7.9723199999999999</v>
+      </c>
+      <c r="K1547" s="10">
+        <v>47.779640000000001</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1548">
         <v>3071</v>
       </c>
@@ -48945,8 +51443,20 @@
       <c r="G1548" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1548" t="s">
+        <v>4167</v>
+      </c>
+      <c r="I1548" s="10">
+        <v>131494</v>
+      </c>
+      <c r="J1548" s="10">
+        <v>7.8822700000000001</v>
+      </c>
+      <c r="K1548" s="10">
+        <v>47.792650000000002</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1549">
         <v>3072</v>
       </c>
@@ -48968,8 +51478,20 @@
       <c r="G1549" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1549" t="s">
+        <v>4168</v>
+      </c>
+      <c r="I1549" s="10">
+        <v>127723</v>
+      </c>
+      <c r="J1549" s="10">
+        <v>7.8944299999999998</v>
+      </c>
+      <c r="K1549" s="10">
+        <v>47.786369999999998</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1550">
         <v>3073</v>
       </c>
@@ -48991,8 +51513,20 @@
       <c r="G1550" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="1551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1550" t="s">
+        <v>4168</v>
+      </c>
+      <c r="I1550" s="10">
+        <v>127723</v>
+      </c>
+      <c r="J1550" s="10">
+        <v>7.8944299999999998</v>
+      </c>
+      <c r="K1550" s="10">
+        <v>47.786369999999998</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1551">
         <v>3074</v>
       </c>
@@ -49014,8 +51548,20 @@
       <c r="G1551" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="1552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1551" t="s">
+        <v>4168</v>
+      </c>
+      <c r="I1551" s="10">
+        <v>127723</v>
+      </c>
+      <c r="J1551" s="10">
+        <v>7.8944299999999998</v>
+      </c>
+      <c r="K1551" s="10">
+        <v>47.786369999999998</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1552">
         <v>3075</v>
       </c>
@@ -49037,8 +51583,20 @@
       <c r="G1552" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="1553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1552" t="s">
+        <v>4168</v>
+      </c>
+      <c r="I1552" s="10">
+        <v>127723</v>
+      </c>
+      <c r="J1552" s="10">
+        <v>7.8944299999999998</v>
+      </c>
+      <c r="K1552" s="10">
+        <v>47.786369999999998</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1553">
         <v>3076</v>
       </c>
@@ -49060,8 +51618,20 @@
       <c r="G1553" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="1554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1553" t="s">
+        <v>4169</v>
+      </c>
+      <c r="I1553" s="10">
+        <v>131410</v>
+      </c>
+      <c r="J1553" s="10">
+        <v>7.8952200000000001</v>
+      </c>
+      <c r="K1553" s="10">
+        <v>47.803170000000001</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1554">
         <v>3077</v>
       </c>
@@ -49083,8 +51653,20 @@
       <c r="G1554" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="1555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1554" t="s">
+        <v>4170</v>
+      </c>
+      <c r="I1554" s="10">
+        <v>131987</v>
+      </c>
+      <c r="J1554" s="10">
+        <v>7.9130099999999999</v>
+      </c>
+      <c r="K1554" s="10">
+        <v>47.800539999999998</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1555">
         <v>3078</v>
       </c>
@@ -49106,54 +51688,96 @@
       <c r="G1555" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="1556" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1556">
+      <c r="H1555" t="s">
+        <v>4171</v>
+      </c>
+      <c r="I1555" s="10">
+        <v>132741</v>
+      </c>
+      <c r="J1555" s="10">
+        <v>7.9231100000000003</v>
+      </c>
+      <c r="K1555" s="10">
+        <v>47.785739999999997</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="12">
         <v>3079</v>
       </c>
-      <c r="B1556" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1556" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1556" t="s">
+      <c r="B1556" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1556" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1556" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1556">
-        <v>14</v>
-      </c>
-      <c r="F1556">
+      <c r="E1556" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1556" s="12">
         <v>7</v>
       </c>
-      <c r="G1556" t="s">
+      <c r="G1556" s="12" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="1557" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1557">
+      <c r="H1556" s="12" t="s">
+        <v>4172</v>
+      </c>
+      <c r="I1556" s="12">
+        <v>131385</v>
+      </c>
+      <c r="J1556" s="12">
+        <v>7.8839699999999997</v>
+      </c>
+      <c r="K1556" s="12">
+        <v>47.760300000000001</v>
+      </c>
+      <c r="P1556" s="12" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="12">
         <v>3080</v>
       </c>
-      <c r="B1557" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1557" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1557" t="s">
+      <c r="B1557" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1557" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1557" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1557">
-        <v>14</v>
-      </c>
-      <c r="F1557">
+      <c r="E1557" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1557" s="12">
         <v>8</v>
       </c>
-      <c r="G1557" t="s">
+      <c r="G1557" s="12" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="1558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1557" s="12" t="s">
+        <v>4174</v>
+      </c>
+      <c r="I1557" s="12">
+        <v>131385</v>
+      </c>
+      <c r="J1557" s="12">
+        <v>7.8839699999999997</v>
+      </c>
+      <c r="K1557" s="12">
+        <v>47.760300000000001</v>
+      </c>
+      <c r="P1557" s="12" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1558">
         <v>3081</v>
       </c>
@@ -49175,8 +51799,20 @@
       <c r="G1558" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="1559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1558" t="s">
+        <v>4176</v>
+      </c>
+      <c r="I1558" s="10">
+        <v>130389</v>
+      </c>
+      <c r="J1558" s="10">
+        <v>7.9396399999999998</v>
+      </c>
+      <c r="K1558" s="10">
+        <v>47.804340000000003</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1559">
         <v>3082</v>
       </c>
@@ -49198,8 +51834,20 @@
       <c r="G1559" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="1560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1559" t="s">
+        <v>4177</v>
+      </c>
+      <c r="I1559" s="10">
+        <v>131801</v>
+      </c>
+      <c r="J1559" s="10">
+        <v>7.9388800000000002</v>
+      </c>
+      <c r="K1559" s="10">
+        <v>47.817500000000003</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1560">
         <v>3083</v>
       </c>
@@ -49221,31 +51869,58 @@
       <c r="G1560" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="1561" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1561">
+      <c r="H1560" t="s">
+        <v>4178</v>
+      </c>
+      <c r="I1560" s="10">
+        <v>132647</v>
+      </c>
+      <c r="J1560" s="10">
+        <v>7.9463400000000002</v>
+      </c>
+      <c r="K1560" s="10">
+        <v>47.828870000000002</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="12">
         <v>3084</v>
       </c>
-      <c r="B1561" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1561" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1561" t="s">
+      <c r="B1561" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1561" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1561" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1561">
-        <v>14</v>
-      </c>
-      <c r="F1561">
+      <c r="E1561" s="12">
+        <v>14</v>
+      </c>
+      <c r="F1561" s="12">
         <v>12</v>
       </c>
-      <c r="G1561" t="s">
+      <c r="G1561" s="12" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="1562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1561" s="12" t="s">
+        <v>4179</v>
+      </c>
+      <c r="I1561" s="12">
+        <v>130406</v>
+      </c>
+      <c r="J1561" s="12">
+        <v>7.8405399999999998</v>
+      </c>
+      <c r="K1561" s="12">
+        <v>47.802259999999997</v>
+      </c>
+      <c r="P1561" s="12" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1562">
         <v>3085</v>
       </c>
@@ -49267,8 +51942,20 @@
       <c r="G1562" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="1563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1562" t="s">
+        <v>4181</v>
+      </c>
+      <c r="I1562" s="10">
+        <v>127444</v>
+      </c>
+      <c r="J1562" s="10">
+        <v>7.9532699999999998</v>
+      </c>
+      <c r="K1562" s="10">
+        <v>47.76746</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1563">
         <v>3086</v>
       </c>
@@ -49290,8 +51977,20 @@
       <c r="G1563" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="1564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1563" t="s">
+        <v>4182</v>
+      </c>
+      <c r="I1563" s="10">
+        <v>131965</v>
+      </c>
+      <c r="J1563" s="10">
+        <v>8.0705899999999993</v>
+      </c>
+      <c r="K1563" s="10">
+        <v>47.817489999999999</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1564">
         <v>3087</v>
       </c>
@@ -49313,8 +52012,20 @@
       <c r="G1564" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="1565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1564" t="s">
+        <v>4183</v>
+      </c>
+      <c r="I1564" s="10">
+        <v>132402</v>
+      </c>
+      <c r="J1564" s="10">
+        <v>8.1279199999999996</v>
+      </c>
+      <c r="K1564" s="10">
+        <v>47.76144</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1565">
         <v>3088</v>
       </c>
@@ -49336,8 +52047,20 @@
       <c r="G1565" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="1566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1565" t="s">
+        <v>4183</v>
+      </c>
+      <c r="I1565" s="10">
+        <v>132402</v>
+      </c>
+      <c r="J1565" s="10">
+        <v>8.1279199999999996</v>
+      </c>
+      <c r="K1565" s="10">
+        <v>47.76144</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1566">
         <v>3089</v>
       </c>
@@ -49359,8 +52082,20 @@
       <c r="G1566" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="1567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1566" t="s">
+        <v>4183</v>
+      </c>
+      <c r="I1566" s="10">
+        <v>132402</v>
+      </c>
+      <c r="J1566" s="10">
+        <v>8.1279199999999996</v>
+      </c>
+      <c r="K1566" s="10">
+        <v>47.76144</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1567">
         <v>3090</v>
       </c>
@@ -49382,28 +52117,55 @@
       <c r="G1567" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="1568" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1568">
+      <c r="H1567" t="s">
+        <v>4183</v>
+      </c>
+      <c r="I1567" s="10">
+        <v>132402</v>
+      </c>
+      <c r="J1567" s="10">
+        <v>8.1279199999999996</v>
+      </c>
+      <c r="K1567" s="10">
+        <v>47.76144</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="12">
         <v>3091</v>
       </c>
-      <c r="B1568" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1568" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1568" t="s">
+      <c r="B1568" s="13">
+        <v>44826</v>
+      </c>
+      <c r="C1568" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1568" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="E1568">
+      <c r="E1568" s="12">
         <v>15</v>
       </c>
-      <c r="F1568">
+      <c r="F1568" s="12">
         <v>3</v>
       </c>
-      <c r="G1568" t="s">
+      <c r="G1568" s="12" t="s">
         <v>1208</v>
+      </c>
+      <c r="H1568" s="12" t="s">
+        <v>4184</v>
+      </c>
+      <c r="I1568" s="12">
+        <v>546039</v>
+      </c>
+      <c r="J1568" s="12">
+        <v>8.1770600000000009</v>
+      </c>
+      <c r="K1568" s="12">
+        <v>47.798699999999997</v>
+      </c>
+      <c r="P1568" s="12" t="s">
+        <v>4185</v>
       </c>
     </row>
     <row r="1569" spans="1:16" x14ac:dyDescent="0.3">
@@ -49451,6 +52213,18 @@
       <c r="G1570" t="s">
         <v>1210</v>
       </c>
+      <c r="H1570" t="s">
+        <v>4186</v>
+      </c>
+      <c r="I1570" s="10">
+        <v>129658</v>
+      </c>
+      <c r="J1570" s="10">
+        <v>8.1782800000000009</v>
+      </c>
+      <c r="K1570" s="10">
+        <v>47.817059999999998</v>
+      </c>
     </row>
     <row r="1571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1571">
@@ -49474,6 +52248,18 @@
       <c r="G1571" t="s">
         <v>1211</v>
       </c>
+      <c r="H1571" t="s">
+        <v>4069</v>
+      </c>
+      <c r="I1571" s="10">
+        <v>132149</v>
+      </c>
+      <c r="J1571" s="10">
+        <v>8.2122100000000007</v>
+      </c>
+      <c r="K1571" s="10">
+        <v>47.756329999999998</v>
+      </c>
     </row>
     <row r="1572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1572">
@@ -49497,6 +52283,18 @@
       <c r="G1572" t="s">
         <v>1212</v>
       </c>
+      <c r="H1572" t="s">
+        <v>4187</v>
+      </c>
+      <c r="I1572" s="10">
+        <v>130919</v>
+      </c>
+      <c r="J1572" s="10">
+        <v>8.26708</v>
+      </c>
+      <c r="K1572" s="10">
+        <v>47.750869999999999</v>
+      </c>
     </row>
     <row r="1573" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1573">
@@ -49913,38 +52711,38 @@
         <v>47.708280000000002</v>
       </c>
     </row>
-    <row r="1587" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1587">
+    <row r="1587" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1587" s="19">
         <v>3110</v>
       </c>
-      <c r="B1587" s="5">
-        <v>44826</v>
-      </c>
-      <c r="C1587" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1587" t="s">
+      <c r="B1587" s="20">
+        <v>44826</v>
+      </c>
+      <c r="C1587" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1587" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E1587">
+      <c r="E1587" s="19">
         <v>9</v>
       </c>
-      <c r="F1587">
+      <c r="F1587" s="19">
         <v>10</v>
       </c>
-      <c r="G1587" t="s">
+      <c r="G1587" s="19" t="s">
         <v>1227</v>
       </c>
-      <c r="H1587" t="s">
+      <c r="H1587" s="19" t="s">
         <v>3912</v>
       </c>
-      <c r="I1587">
+      <c r="I1587" s="19">
         <v>25420</v>
       </c>
-      <c r="J1587">
+      <c r="J1587" s="19">
         <v>7.1346100000000003</v>
       </c>
-      <c r="K1587">
+      <c r="K1587" s="19">
         <v>47.689399999999999</v>
       </c>
     </row>
@@ -52156,13 +54954,13 @@
       <c r="H1652" s="10" t="s">
         <v>3979</v>
       </c>
-      <c r="I1652" s="23">
+      <c r="I1652" s="10">
         <v>133785</v>
       </c>
-      <c r="J1652" s="23">
+      <c r="J1652" s="10">
         <v>7.9041199999999998</v>
       </c>
-      <c r="K1652" s="23">
+      <c r="K1652" s="10">
         <v>47.7181</v>
       </c>
     </row>
@@ -52191,13 +54989,13 @@
       <c r="H1653" t="s">
         <v>3980</v>
       </c>
-      <c r="I1653" s="25">
+      <c r="I1653">
         <v>128808</v>
       </c>
-      <c r="J1653" s="25">
+      <c r="J1653">
         <v>7.8836300000000001</v>
       </c>
-      <c r="K1653" s="25">
+      <c r="K1653">
         <v>47.728389999999997</v>
       </c>
     </row>
@@ -52226,13 +55024,13 @@
       <c r="H1654" t="s">
         <v>3981</v>
       </c>
-      <c r="I1654" s="25">
+      <c r="I1654">
         <v>131927</v>
       </c>
-      <c r="J1654" s="25">
+      <c r="J1654">
         <v>7.8734999999999999</v>
       </c>
-      <c r="K1654" s="25">
+      <c r="K1654">
         <v>47.715319999999998</v>
       </c>
     </row>
@@ -52261,13 +55059,13 @@
       <c r="H1655" s="12" t="s">
         <v>3982</v>
       </c>
-      <c r="I1655" s="24">
+      <c r="I1655" s="12">
         <v>131783</v>
       </c>
-      <c r="J1655" s="24">
+      <c r="J1655" s="12">
         <v>7.8366600000000002</v>
       </c>
-      <c r="K1655" s="24">
+      <c r="K1655" s="12">
         <v>47.71725</v>
       </c>
       <c r="P1655" s="12" t="s">
@@ -52299,13 +55097,13 @@
       <c r="H1656" t="s">
         <v>3984</v>
       </c>
-      <c r="I1656" s="25">
+      <c r="I1656">
         <v>127334</v>
       </c>
-      <c r="J1656" s="25">
+      <c r="J1656">
         <v>7.8530100000000003</v>
       </c>
-      <c r="K1656" s="25">
+      <c r="K1656">
         <v>47.707529999999998</v>
       </c>
     </row>
@@ -52334,13 +55132,13 @@
       <c r="H1657" t="s">
         <v>3984</v>
       </c>
-      <c r="I1657" s="25">
+      <c r="I1657">
         <v>127334</v>
       </c>
-      <c r="J1657" s="25">
+      <c r="J1657">
         <v>7.8530100000000003</v>
       </c>
-      <c r="K1657" s="25">
+      <c r="K1657">
         <v>47.707529999999998</v>
       </c>
     </row>
@@ -52369,13 +55167,13 @@
       <c r="H1658" t="s">
         <v>3984</v>
       </c>
-      <c r="I1658" s="25">
+      <c r="I1658">
         <v>127334</v>
       </c>
-      <c r="J1658" s="25">
+      <c r="J1658">
         <v>7.8530100000000003</v>
       </c>
-      <c r="K1658" s="25">
+      <c r="K1658">
         <v>47.707529999999998</v>
       </c>
     </row>
@@ -52401,9 +55199,6 @@
       <c r="G1659" t="s">
         <v>1299</v>
       </c>
-      <c r="I1659" s="25"/>
-      <c r="J1659" s="25"/>
-      <c r="K1659" s="25"/>
     </row>
     <row r="1660" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1660">
@@ -52430,13 +55225,13 @@
       <c r="H1660" t="s">
         <v>3985</v>
       </c>
-      <c r="I1660" s="25">
+      <c r="I1660">
         <v>132933</v>
       </c>
-      <c r="J1660" s="25">
+      <c r="J1660">
         <v>7.9327100000000002</v>
       </c>
-      <c r="K1660" s="25">
+      <c r="K1660">
         <v>47.697249999999997</v>
       </c>
     </row>
@@ -52500,13 +55295,13 @@
       <c r="H1662" t="s">
         <v>3987</v>
       </c>
-      <c r="I1662" s="25">
+      <c r="I1662">
         <v>129590</v>
       </c>
-      <c r="J1662" s="25">
+      <c r="J1662">
         <v>7.8608900000000004</v>
       </c>
-      <c r="K1662" s="25">
+      <c r="K1662">
         <v>47.68233</v>
       </c>
     </row>
@@ -52532,9 +55327,6 @@
       <c r="G1663" s="10" t="s">
         <v>1303</v>
       </c>
-      <c r="I1663" s="23"/>
-      <c r="J1663" s="23"/>
-      <c r="K1663" s="23"/>
     </row>
     <row r="1664" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1664">
@@ -52607,13 +55399,13 @@
       <c r="H1666" s="12" t="s">
         <v>3988</v>
       </c>
-      <c r="I1666" s="24">
+      <c r="I1666" s="12">
         <v>133374</v>
       </c>
-      <c r="J1666" s="24">
+      <c r="J1666" s="12">
         <v>7.8405500000000004</v>
       </c>
-      <c r="K1666" s="24">
+      <c r="K1666" s="12">
         <v>47.681429999999999</v>
       </c>
       <c r="L1666" s="12"/>
